--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="433">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -74,6 +74,45 @@
     <t>TS8NV0707600</t>
   </si>
   <si>
+    <t>ZIMU2965172</t>
+  </si>
+  <si>
+    <t>NYK ALTAIR</t>
+  </si>
+  <si>
+    <t>0042</t>
+  </si>
+  <si>
+    <t>CHI1155850-CHI7839816</t>
+  </si>
+  <si>
+    <t>TS8TA0479600</t>
+  </si>
+  <si>
+    <t>TCLU7810357</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839822</t>
+  </si>
+  <si>
+    <t>TS8NX0506500</t>
+  </si>
+  <si>
+    <t>CAIU8932585</t>
+  </si>
+  <si>
+    <t>YM UBERTY</t>
+  </si>
+  <si>
+    <t>0069</t>
+  </si>
+  <si>
+    <t>CHI1155858-CHI7839834</t>
+  </si>
+  <si>
+    <t>NB9BR0590700</t>
+  </si>
+  <si>
     <t>BSIU9806740</t>
   </si>
   <si>
@@ -92,6 +131,15 @@
     <t>SH9KM1466700</t>
   </si>
   <si>
+    <t>NYKU8242709</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839259</t>
+  </si>
+  <si>
+    <t>MNLV09346306</t>
+  </si>
+  <si>
     <t>TCNU6425836</t>
   </si>
   <si>
@@ -110,7 +158,94 @@
     <t>TS8NV0706500</t>
   </si>
   <si>
-    <t>TCLU6864976</t>
+    <t>CAIU9037759</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833399</t>
+  </si>
+  <si>
+    <t>SH9FY8401307</t>
+  </si>
+  <si>
+    <t>TCLU1791460</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833385</t>
+  </si>
+  <si>
+    <t>FCIU9284227</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833391</t>
+  </si>
+  <si>
+    <t>SH9FY8401305</t>
+  </si>
+  <si>
+    <t>MOAU6706939</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833437</t>
+  </si>
+  <si>
+    <t>SH9KM1464500</t>
+  </si>
+  <si>
+    <t>NYKU4331686</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833431</t>
+  </si>
+  <si>
+    <t>SH9KM1458800</t>
+  </si>
+  <si>
+    <t>TCNU9911174</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833432</t>
+  </si>
+  <si>
+    <t>SH9KM1459900</t>
+  </si>
+  <si>
+    <t>TCNU7085983</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833435</t>
+  </si>
+  <si>
+    <t>SH9KM1462300</t>
+  </si>
+  <si>
+    <t>DFSU7427148</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833449</t>
+  </si>
+  <si>
+    <t>SH9KM1476800</t>
+  </si>
+  <si>
+    <t>TLLU4365826</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833458</t>
+  </si>
+  <si>
+    <t>SH9KM1516300</t>
+  </si>
+  <si>
+    <t>TLLU5540395</t>
+  </si>
+  <si>
+    <t>CHI1155858-CHI7839826</t>
+  </si>
+  <si>
+    <t>NB8BEX839700</t>
+  </si>
+  <si>
+    <t>SEGU5974141</t>
   </si>
   <si>
     <t>YM UTMOST</t>
@@ -119,115 +254,10 @@
     <t>0079</t>
   </si>
   <si>
-    <t>CHI1142380-CHI7762104</t>
-  </si>
-  <si>
-    <t>TS8QI2275900</t>
-  </si>
-  <si>
-    <t>GESU1348588</t>
-  </si>
-  <si>
-    <t>CHI1142361-CHI7762103</t>
-  </si>
-  <si>
-    <t>SH9EL8517600</t>
-  </si>
-  <si>
-    <t>CAIU9037759</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833399</t>
-  </si>
-  <si>
-    <t>SH9FY8401307</t>
-  </si>
-  <si>
-    <t>TCLU1791460</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833385</t>
-  </si>
-  <si>
-    <t>FCIU9284227</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833391</t>
-  </si>
-  <si>
-    <t>SH9FY8401305</t>
-  </si>
-  <si>
-    <t>MOAU6706939</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833437</t>
-  </si>
-  <si>
-    <t>SH9KM1464500</t>
-  </si>
-  <si>
-    <t>NYKU4331686</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833431</t>
-  </si>
-  <si>
-    <t>SH9KM1458800</t>
-  </si>
-  <si>
-    <t>TCNU9911174</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833432</t>
-  </si>
-  <si>
-    <t>SH9KM1459900</t>
-  </si>
-  <si>
-    <t>TCNU7085983</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833435</t>
-  </si>
-  <si>
-    <t>SH9KM1462300</t>
-  </si>
-  <si>
-    <t>DFSU7427148</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833449</t>
-  </si>
-  <si>
-    <t>SH9KM1476800</t>
-  </si>
-  <si>
-    <t>TLLU4365826</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833458</t>
-  </si>
-  <si>
-    <t>SH9KM1516300</t>
-  </si>
-  <si>
-    <t>NYKU5118206</t>
-  </si>
-  <si>
-    <t>CHI1142248-CHI7761660</t>
-  </si>
-  <si>
-    <t>SELV29842400</t>
-  </si>
-  <si>
-    <t>TRHU1995640</t>
-  </si>
-  <si>
-    <t>CHI1142372-CHI7762102</t>
-  </si>
-  <si>
-    <t>SELV32566800</t>
+    <t>CHI1159367-CHI7859511</t>
+  </si>
+  <si>
+    <t>SH9FV9950300</t>
   </si>
   <si>
     <t>NYKU0791385</t>
@@ -245,6 +275,12 @@
     <t>PUSV01956600</t>
   </si>
   <si>
+    <t>TTNU5296193</t>
+  </si>
+  <si>
+    <t>CHI1159367-CHI7859510</t>
+  </si>
+  <si>
     <t>GESU5961427</t>
   </si>
   <si>
@@ -281,6 +317,69 @@
     <t>PUSV01956601</t>
   </si>
   <si>
+    <t>KKFU1821246</t>
+  </si>
+  <si>
+    <t>CHI1155833-CHI7839737</t>
+  </si>
+  <si>
+    <t>SH9KM3441900</t>
+  </si>
+  <si>
+    <t>UESU4164361</t>
+  </si>
+  <si>
+    <t>CHI1155854-CHI7839827</t>
+  </si>
+  <si>
+    <t>SH9ET8189300</t>
+  </si>
+  <si>
+    <t>KKFU9162227</t>
+  </si>
+  <si>
+    <t>CHI1155855-CHI7839828</t>
+  </si>
+  <si>
+    <t>NB9IA0582700</t>
+  </si>
+  <si>
+    <t>XCLU4900277</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839824</t>
+  </si>
+  <si>
+    <t>SH9ET8217900</t>
+  </si>
+  <si>
+    <t>CAIU8148824</t>
+  </si>
+  <si>
+    <t>CHI1155858-CHI7839832</t>
+  </si>
+  <si>
+    <t>TA9PF1902700</t>
+  </si>
+  <si>
+    <t>NYKU4030912</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839249</t>
+  </si>
+  <si>
+    <t>MNLV07566500</t>
+  </si>
+  <si>
+    <t>TGBU5319995</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839256</t>
+  </si>
+  <si>
+    <t>MNLV09346303</t>
+  </si>
+  <si>
     <t>KKFU7584136</t>
   </si>
   <si>
@@ -296,7 +395,841 @@
     <t>SH9KM1465600</t>
   </si>
   <si>
-    <t>SEGU5875811</t>
+    <t>TCLU8876810</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833396</t>
+  </si>
+  <si>
+    <t>SH9FY8401306</t>
+  </si>
+  <si>
+    <t>MOTU5809538</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833400</t>
+  </si>
+  <si>
+    <t>TCNU6850563</t>
+  </si>
+  <si>
+    <t>CHI1155733-CHI7838736</t>
+  </si>
+  <si>
+    <t>NYKU3673030</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839252</t>
+  </si>
+  <si>
+    <t>MNLV08926600</t>
+  </si>
+  <si>
+    <t>TCNU5628280</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839248</t>
+  </si>
+  <si>
+    <t>MNLV06893700</t>
+  </si>
+  <si>
+    <t>BSIU9675770</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839255</t>
+  </si>
+  <si>
+    <t>MNLV09346302</t>
+  </si>
+  <si>
+    <t>TCNU4913220</t>
+  </si>
+  <si>
+    <t>CHI1154407-CHI7832798</t>
+  </si>
+  <si>
+    <t>SH9FH6113900</t>
+  </si>
+  <si>
+    <t>MOFU0634601</t>
+  </si>
+  <si>
+    <t>CHI1155406-CHI7836527</t>
+  </si>
+  <si>
+    <t>SH9KN1000600</t>
+  </si>
+  <si>
+    <t>TEMU7564219</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839253</t>
+  </si>
+  <si>
+    <t>MNLV09346300</t>
+  </si>
+  <si>
+    <t>TEMU7242974</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839250</t>
+  </si>
+  <si>
+    <t>MNLV07566501</t>
+  </si>
+  <si>
+    <t>CAIU8946721</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833453</t>
+  </si>
+  <si>
+    <t>SH9KM1480300</t>
+  </si>
+  <si>
+    <t>TCNU9628420</t>
+  </si>
+  <si>
+    <t>CHI1159605-CHI7861408</t>
+  </si>
+  <si>
+    <t>MNLV10345800</t>
+  </si>
+  <si>
+    <t>NYKU5865388</t>
+  </si>
+  <si>
+    <t>CHI1159605-CHI7861407</t>
+  </si>
+  <si>
+    <t>NYKU0863269</t>
+  </si>
+  <si>
+    <t>CHI1159607-CHI7861398</t>
+  </si>
+  <si>
+    <t>SH8EGA292900</t>
+  </si>
+  <si>
+    <t>NYKU5254136</t>
+  </si>
+  <si>
+    <t>CHI1159608-CHI7861402</t>
+  </si>
+  <si>
+    <t>SH9KL8374400</t>
+  </si>
+  <si>
+    <t>NYKU4397805</t>
+  </si>
+  <si>
+    <t>CHI1159608-CHI7861401</t>
+  </si>
+  <si>
+    <t>SH9KL8377700</t>
+  </si>
+  <si>
+    <t>TCNU2725115</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839823</t>
+  </si>
+  <si>
+    <t>NB8BFR721800</t>
+  </si>
+  <si>
+    <t>EOLU8270530</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839818</t>
+  </si>
+  <si>
+    <t>NB9BF0282900</t>
+  </si>
+  <si>
+    <t>TCLU6310892</t>
+  </si>
+  <si>
+    <t>HAMBURG BRIDGE</t>
+  </si>
+  <si>
+    <t>0059</t>
+  </si>
+  <si>
+    <t>CHI1155859-CHI7839825</t>
+  </si>
+  <si>
+    <t>MNLV05763900</t>
+  </si>
+  <si>
+    <t>GESU6588010</t>
+  </si>
+  <si>
+    <t>CHI1155853-CHI7839812</t>
+  </si>
+  <si>
+    <t>SELV26599300</t>
+  </si>
+  <si>
+    <t>NYKU5163186</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839821</t>
+  </si>
+  <si>
+    <t>ONEU0280910</t>
+  </si>
+  <si>
+    <t>CHI1155858-CHI7839833</t>
+  </si>
+  <si>
+    <t>TA8RA2959900</t>
+  </si>
+  <si>
+    <t>CXDU2291950</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839817</t>
+  </si>
+  <si>
+    <t>SELV29800500</t>
+  </si>
+  <si>
+    <t>MOTU0732855</t>
+  </si>
+  <si>
+    <t>CHI1155859-CHI7839829</t>
+  </si>
+  <si>
+    <t>TA8RA3602900</t>
+  </si>
+  <si>
+    <t>ONEU0216505</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833395</t>
+  </si>
+  <si>
+    <t>TCNU8891411</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833381</t>
+  </si>
+  <si>
+    <t>SH9FY8401302</t>
+  </si>
+  <si>
+    <t>KKFU7532528</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860753</t>
+  </si>
+  <si>
+    <t>MNLV08079500</t>
+  </si>
+  <si>
+    <t>TLLU6052862</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860756</t>
+  </si>
+  <si>
+    <t>MNLV09036600</t>
+  </si>
+  <si>
+    <t>MOTU0799490</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833430</t>
+  </si>
+  <si>
+    <t>SH9KM1457700</t>
+  </si>
+  <si>
+    <t>MOTU0606610</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833433</t>
+  </si>
+  <si>
+    <t>SH9KM1460800</t>
+  </si>
+  <si>
+    <t>NYKU4764161</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833456</t>
+  </si>
+  <si>
+    <t>SH9KM1514800</t>
+  </si>
+  <si>
+    <t>FDCU0449265</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833379</t>
+  </si>
+  <si>
+    <t>SH9FY8401300</t>
+  </si>
+  <si>
+    <t>KKFU8008541</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833382</t>
+  </si>
+  <si>
+    <t>SH9FY8401303</t>
+  </si>
+  <si>
+    <t>TCLU8817124</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833389</t>
+  </si>
+  <si>
+    <t>NYKU5933230</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833394</t>
+  </si>
+  <si>
+    <t>TCNU7433311</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833440</t>
+  </si>
+  <si>
+    <t>SH9KM1467800</t>
+  </si>
+  <si>
+    <t>DRYU9454223</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833444</t>
+  </si>
+  <si>
+    <t>SH9KM1471300</t>
+  </si>
+  <si>
+    <t>KKFU7892740</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833450</t>
+  </si>
+  <si>
+    <t>SH9KM1477900</t>
+  </si>
+  <si>
+    <t>NYKU0837995</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833454</t>
+  </si>
+  <si>
+    <t>SH9KM1510400</t>
+  </si>
+  <si>
+    <t>TCLU6373503</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833386</t>
+  </si>
+  <si>
+    <t>TCLU9428488</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833384</t>
+  </si>
+  <si>
+    <t>DRYU9411659</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833390</t>
+  </si>
+  <si>
+    <t>TCLU6274671</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833393</t>
+  </si>
+  <si>
+    <t>TLLU5574440</t>
+  </si>
+  <si>
+    <t>CHI1155733-CHI7838734</t>
+  </si>
+  <si>
+    <t>UETU4117614</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860758</t>
+  </si>
+  <si>
+    <t>MNLV09673600</t>
+  </si>
+  <si>
+    <t>ONEU7013937</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833448</t>
+  </si>
+  <si>
+    <t>SH9KM1475700</t>
+  </si>
+  <si>
+    <t>KKFU8068751</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833434</t>
+  </si>
+  <si>
+    <t>SH9KM1461900</t>
+  </si>
+  <si>
+    <t>TCNU3372590</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833443</t>
+  </si>
+  <si>
+    <t>SH9KM1470900</t>
+  </si>
+  <si>
+    <t>TEMU7492546</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833441</t>
+  </si>
+  <si>
+    <t>SH9KM1468900</t>
+  </si>
+  <si>
+    <t>TCLU9302503</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833445</t>
+  </si>
+  <si>
+    <t>SH9KM1472400</t>
+  </si>
+  <si>
+    <t>TCNU4278973</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839251</t>
+  </si>
+  <si>
+    <t>MNLV08925500</t>
+  </si>
+  <si>
+    <t>ONEU0281861</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839254</t>
+  </si>
+  <si>
+    <t>MNLV09346301</t>
+  </si>
+  <si>
+    <t>TCLU6279246</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833446</t>
+  </si>
+  <si>
+    <t>SH9KM1473500</t>
+  </si>
+  <si>
+    <t>TTNU5462838</t>
+  </si>
+  <si>
+    <t>CHI1155854-CHI7839831</t>
+  </si>
+  <si>
+    <t>TA8DAE307800</t>
+  </si>
+  <si>
+    <t>LYPU0005188</t>
+  </si>
+  <si>
+    <t>CHI1155858-CHI7839830</t>
+  </si>
+  <si>
+    <t>TA8RF1724300</t>
+  </si>
+  <si>
+    <t>NYKU5216141</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833380</t>
+  </si>
+  <si>
+    <t>NYKU5731769</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833392</t>
+  </si>
+  <si>
+    <t>TCLU8736526</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833397</t>
+  </si>
+  <si>
+    <t>NYKU4741166</t>
+  </si>
+  <si>
+    <t>CHI1154587-CHI7833398</t>
+  </si>
+  <si>
+    <t>TEMU7236272</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839257</t>
+  </si>
+  <si>
+    <t>MNLV09346304</t>
+  </si>
+  <si>
+    <t>FDCU0496652</t>
+  </si>
+  <si>
+    <t>CHI1155788-CHI7839258</t>
+  </si>
+  <si>
+    <t>MNLV09346305</t>
+  </si>
+  <si>
+    <t>NYKU5787897</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833447</t>
+  </si>
+  <si>
+    <t>SH9KM1474600</t>
+  </si>
+  <si>
+    <t>TLLU1634285</t>
+  </si>
+  <si>
+    <t>CHI1155831-CHI7839735</t>
+  </si>
+  <si>
+    <t>SH9KM3444500</t>
+  </si>
+  <si>
+    <t>TCLU6717949</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833452</t>
+  </si>
+  <si>
+    <t>SH9KM1479400</t>
+  </si>
+  <si>
+    <t>KKFU7974730</t>
+  </si>
+  <si>
+    <t>CHI1154630-CHI7833429</t>
+  </si>
+  <si>
+    <t>SH9KM1456600</t>
+  </si>
+  <si>
+    <t>MOTU1405097</t>
+  </si>
+  <si>
+    <t>CHI1155857-CHI7839814</t>
+  </si>
+  <si>
+    <t>SELV31459800</t>
+  </si>
+  <si>
+    <t>TCNU7158586</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861245</t>
+  </si>
+  <si>
+    <t>SELV29510300</t>
+  </si>
+  <si>
+    <t>NYKU4778210</t>
+  </si>
+  <si>
+    <t>CHI1159616-CHI7861459</t>
+  </si>
+  <si>
+    <t>SH9FV8044300</t>
+  </si>
+  <si>
+    <t>TCNU9946530</t>
+  </si>
+  <si>
+    <t>CHI1159590-CHI7861239</t>
+  </si>
+  <si>
+    <t>SH9EH3299600</t>
+  </si>
+  <si>
+    <t>TGHU9727106</t>
+  </si>
+  <si>
+    <t>CHI1159620-CHI7861523</t>
+  </si>
+  <si>
+    <t>SZ8HC8144400</t>
+  </si>
+  <si>
+    <t>FDCU0586524</t>
+  </si>
+  <si>
+    <t>CHI1159949-CHI7863561</t>
+  </si>
+  <si>
+    <t>SH9FT5935700</t>
+  </si>
+  <si>
+    <t>TRHU1191894</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860752</t>
+  </si>
+  <si>
+    <t>MNLV09499500</t>
+  </si>
+  <si>
+    <t>NYKU3881477</t>
+  </si>
+  <si>
+    <t>CHI1159573-CHI7860749</t>
+  </si>
+  <si>
+    <t>TS9NU0570400</t>
+  </si>
+  <si>
+    <t>SEGU4539155</t>
+  </si>
+  <si>
+    <t>CHI1159590-CHI7861238</t>
+  </si>
+  <si>
+    <t>KKFU8136922</t>
+  </si>
+  <si>
+    <t>CHI1159608-CHI7861404</t>
+  </si>
+  <si>
+    <t>SH9KL8376600</t>
+  </si>
+  <si>
+    <t>TGHU9768717</t>
+  </si>
+  <si>
+    <t>CHI1159946-CHI7863563</t>
+  </si>
+  <si>
+    <t>SH9FT5934600</t>
+  </si>
+  <si>
+    <t>NYKU4971045</t>
+  </si>
+  <si>
+    <t>CHI1159949-CHI7863558</t>
+  </si>
+  <si>
+    <t>SH9FT5936800</t>
+  </si>
+  <si>
+    <t>FDCU0642510</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860754</t>
+  </si>
+  <si>
+    <t>TLLU6052060</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860751</t>
+  </si>
+  <si>
+    <t>MNLV09030700</t>
+  </si>
+  <si>
+    <t>TCNU6728914</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861247</t>
+  </si>
+  <si>
+    <t>SELV29845700</t>
+  </si>
+  <si>
+    <t>TCLU1534077</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861241</t>
+  </si>
+  <si>
+    <t>SELV26702300</t>
+  </si>
+  <si>
+    <t>UETU4047517</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860757</t>
+  </si>
+  <si>
+    <t>MNLV09153600</t>
+  </si>
+  <si>
+    <t>TEMU2230651</t>
+  </si>
+  <si>
+    <t>CHI1159573-CHI7860750</t>
+  </si>
+  <si>
+    <t>DFSU1023025</t>
+  </si>
+  <si>
+    <t>CHI1159618-CHI7861457</t>
+  </si>
+  <si>
+    <t>CK8LF1130500</t>
+  </si>
+  <si>
+    <t>SEGU5838633</t>
+  </si>
+  <si>
+    <t>CHI1159606-CHI7861410</t>
+  </si>
+  <si>
+    <t>SH9FH6122900</t>
+  </si>
+  <si>
+    <t>NYKU4106900</t>
+  </si>
+  <si>
+    <t>CHI1159607-CHI7861399</t>
+  </si>
+  <si>
+    <t>TCNU4934602</t>
+  </si>
+  <si>
+    <t>CHI1159616-CHI7861460</t>
+  </si>
+  <si>
+    <t>TCLU5500835</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861242</t>
+  </si>
+  <si>
+    <t>SELV29513600</t>
+  </si>
+  <si>
+    <t>TCNU4967139</t>
+  </si>
+  <si>
+    <t>CHI1159949-CHI7863559</t>
+  </si>
+  <si>
+    <t>SH9FT5933500</t>
+  </si>
+  <si>
+    <t>GESU6208207</t>
+  </si>
+  <si>
+    <t>CHI1159620-CHI7861521</t>
+  </si>
+  <si>
+    <t>TEMU8862650</t>
+  </si>
+  <si>
+    <t>CHI1159620-CHI7861522</t>
+  </si>
+  <si>
+    <t>TRLU8053920</t>
+  </si>
+  <si>
+    <t>CHI1159621-CHI7861518</t>
+  </si>
+  <si>
+    <t>SH9AI7646300</t>
+  </si>
+  <si>
+    <t>BSIU9367798</t>
+  </si>
+  <si>
+    <t>CHI1159606-CHI7861409</t>
+  </si>
+  <si>
+    <t>TCLU1684842</t>
+  </si>
+  <si>
+    <t>CHI1159607-CHI7861397</t>
+  </si>
+  <si>
+    <t>SH8EGA294400</t>
+  </si>
+  <si>
+    <t>TGCU0217870</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860755</t>
+  </si>
+  <si>
+    <t>TLLU1632003</t>
+  </si>
+  <si>
+    <t>CHI1159572-CHI7860759</t>
+  </si>
+  <si>
+    <t>MNLV09672500</t>
+  </si>
+  <si>
+    <t>BMOU4324355</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861244</t>
+  </si>
+  <si>
+    <t>SELV26704500</t>
+  </si>
+  <si>
+    <t>KKFU7954544</t>
+  </si>
+  <si>
+    <t>CHI1159608-CHI7861403</t>
+  </si>
+  <si>
+    <t>SH9KL8375500</t>
+  </si>
+  <si>
+    <t>TCLU6367115</t>
+  </si>
+  <si>
+    <t>CHI1159616-CHI7861462</t>
+  </si>
+  <si>
+    <t>TCLU8047996</t>
+  </si>
+  <si>
+    <t>CHI1159958-CHI7863612</t>
+  </si>
+  <si>
+    <t>SELV31445300</t>
+  </si>
+  <si>
+    <t>TCNU4469774</t>
+  </si>
+  <si>
+    <t>CHI1159616-CHI7861461</t>
+  </si>
+  <si>
+    <t>TCNU8717858</t>
   </si>
   <si>
     <t>YM UNICORN</t>
@@ -305,382 +1238,79 @@
     <t>0036</t>
   </si>
   <si>
-    <t>CHI1142038-CHI7760872</t>
-  </si>
-  <si>
-    <t>NB9IB1055400</t>
-  </si>
-  <si>
-    <t>ONEU7049694</t>
-  </si>
-  <si>
-    <t>CHI1142038-CHI7760873</t>
-  </si>
-  <si>
-    <t>TCLU3394246</t>
-  </si>
-  <si>
-    <t>CHI1142372-CHI7762098</t>
-  </si>
-  <si>
-    <t>SELV30138800</t>
-  </si>
-  <si>
-    <t>TCLU8876810</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833396</t>
-  </si>
-  <si>
-    <t>SH9FY8401306</t>
-  </si>
-  <si>
-    <t>MOTU5809538</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833400</t>
-  </si>
-  <si>
-    <t>TCNU3938732</t>
-  </si>
-  <si>
-    <t>NYK ALTAIR</t>
-  </si>
-  <si>
-    <t>0042</t>
-  </si>
-  <si>
-    <t>CHI1142514-CHI7462433</t>
-  </si>
-  <si>
-    <t>TS8QC2358500</t>
-  </si>
-  <si>
-    <t>TCNU6850563</t>
-  </si>
-  <si>
-    <t>CHI1155733-CHI7838736</t>
-  </si>
-  <si>
-    <t>TCNU4913220</t>
-  </si>
-  <si>
-    <t>CHI1154407-CHI7832798</t>
-  </si>
-  <si>
-    <t>SH9FH6113900</t>
-  </si>
-  <si>
-    <t>MOFU0634601</t>
-  </si>
-  <si>
-    <t>CHI1155406-CHI7836527</t>
-  </si>
-  <si>
-    <t>SH9KN1000600</t>
-  </si>
-  <si>
-    <t>CAIU8946721</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833453</t>
-  </si>
-  <si>
-    <t>SH9KM1480300</t>
-  </si>
-  <si>
-    <t>KKFU7928740</t>
-  </si>
-  <si>
-    <t>CHI1142235-CHI7761659</t>
-  </si>
-  <si>
-    <t>SELV26517700</t>
-  </si>
-  <si>
-    <t>ONEU0216505</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833395</t>
-  </si>
-  <si>
-    <t>TCNU8891411</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833381</t>
-  </si>
-  <si>
-    <t>SH9FY8401302</t>
-  </si>
-  <si>
-    <t>MOTU0799490</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833430</t>
-  </si>
-  <si>
-    <t>SH9KM1457700</t>
-  </si>
-  <si>
-    <t>MOTU0606610</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833433</t>
-  </si>
-  <si>
-    <t>SH9KM1460800</t>
-  </si>
-  <si>
-    <t>NYKU4764161</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833456</t>
-  </si>
-  <si>
-    <t>SH9KM1514800</t>
-  </si>
-  <si>
-    <t>FDCU0449265</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833379</t>
-  </si>
-  <si>
-    <t>SH9FY8401300</t>
-  </si>
-  <si>
-    <t>KKFU8008541</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833382</t>
-  </si>
-  <si>
-    <t>SH9FY8401303</t>
-  </si>
-  <si>
-    <t>TCLU8817124</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833389</t>
-  </si>
-  <si>
-    <t>NYKU5933230</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833394</t>
-  </si>
-  <si>
-    <t>TCNU7433311</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833440</t>
-  </si>
-  <si>
-    <t>SH9KM1467800</t>
-  </si>
-  <si>
-    <t>DRYU9454223</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833444</t>
-  </si>
-  <si>
-    <t>SH9KM1471300</t>
-  </si>
-  <si>
-    <t>KKFU7892740</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833450</t>
-  </si>
-  <si>
-    <t>SH9KM1477900</t>
-  </si>
-  <si>
-    <t>NYKU0837995</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833454</t>
-  </si>
-  <si>
-    <t>SH9KM1510400</t>
-  </si>
-  <si>
-    <t>TCLU6373503</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833386</t>
-  </si>
-  <si>
-    <t>TCLU9428488</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833384</t>
-  </si>
-  <si>
-    <t>DRYU9411659</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833390</t>
-  </si>
-  <si>
-    <t>TCLU6274671</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833393</t>
-  </si>
-  <si>
-    <t>TLLU5574440</t>
-  </si>
-  <si>
-    <t>CHI1155733-CHI7838734</t>
-  </si>
-  <si>
-    <t>ONEU7013937</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833448</t>
-  </si>
-  <si>
-    <t>SH9KM1475700</t>
-  </si>
-  <si>
-    <t>KKFU8068751</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833434</t>
-  </si>
-  <si>
-    <t>SH9KM1461900</t>
-  </si>
-  <si>
-    <t>TCNU3372590</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833443</t>
-  </si>
-  <si>
-    <t>SH9KM1470900</t>
-  </si>
-  <si>
-    <t>TEMU7492546</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833441</t>
-  </si>
-  <si>
-    <t>SH9KM1468900</t>
-  </si>
-  <si>
-    <t>TCLU9302503</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833445</t>
-  </si>
-  <si>
-    <t>SH9KM1472400</t>
-  </si>
-  <si>
-    <t>TCLU6279246</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833446</t>
-  </si>
-  <si>
-    <t>SH9KM1473500</t>
-  </si>
-  <si>
-    <t>NYKU5216141</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833380</t>
-  </si>
-  <si>
-    <t>NYKU5731769</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833392</t>
-  </si>
-  <si>
-    <t>TCLU8736526</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833397</t>
-  </si>
-  <si>
-    <t>NYKU4741166</t>
-  </si>
-  <si>
-    <t>CHI1154587-CHI7833398</t>
-  </si>
-  <si>
-    <t>BSIU9430144</t>
-  </si>
-  <si>
-    <t>CHI1142368-CHI7762105</t>
-  </si>
-  <si>
-    <t>SH9FV9946800</t>
-  </si>
-  <si>
-    <t>KKTU8050248</t>
-  </si>
-  <si>
-    <t>CHI1142378-CHI7762100</t>
-  </si>
-  <si>
-    <t>SELV30681400</t>
-  </si>
-  <si>
-    <t>FDCU0373051</t>
-  </si>
-  <si>
-    <t>CHI1142355-CHI7762101</t>
-  </si>
-  <si>
-    <t>SH9FV5326300</t>
-  </si>
-  <si>
-    <t>DRYU4286359</t>
-  </si>
-  <si>
-    <t>CHI1142363-CHI7762099</t>
-  </si>
-  <si>
-    <t>SELV30273800</t>
-  </si>
-  <si>
-    <t>CAXU9270443</t>
-  </si>
-  <si>
-    <t>CHI1142514-CHI7462432</t>
-  </si>
-  <si>
-    <t>NYKU5787897</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833447</t>
-  </si>
-  <si>
-    <t>SH9KM1474600</t>
-  </si>
-  <si>
-    <t>TCLU6717949</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833452</t>
-  </si>
-  <si>
-    <t>SH9KM1479400</t>
-  </si>
-  <si>
-    <t>KKFU7974730</t>
-  </si>
-  <si>
-    <t>CHI1154630-CHI7833429</t>
-  </si>
-  <si>
-    <t>SH9KM1456600</t>
+    <t>CHI1159560-CHI7860700</t>
+  </si>
+  <si>
+    <t>NB8BHC980400</t>
+  </si>
+  <si>
+    <t>GESU5918040</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861246</t>
+  </si>
+  <si>
+    <t>SELV27304900</t>
+  </si>
+  <si>
+    <t>TLLU5486885</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861240</t>
+  </si>
+  <si>
+    <t>SELV29514700</t>
+  </si>
+  <si>
+    <t>DRYU6083659</t>
+  </si>
+  <si>
+    <t>CHI1159608-CHI7861400</t>
+  </si>
+  <si>
+    <t>MOTU0657406</t>
+  </si>
+  <si>
+    <t>CHI1159608-CHI7861405</t>
+  </si>
+  <si>
+    <t>CAIU9529759</t>
+  </si>
+  <si>
+    <t>CHI1159589-CHI7861243</t>
+  </si>
+  <si>
+    <t>SELV29512500</t>
+  </si>
+  <si>
+    <t>BEAU4618057</t>
+  </si>
+  <si>
+    <t>CHI1159620-CHI7861520</t>
+  </si>
+  <si>
+    <t>TCNU6024108</t>
+  </si>
+  <si>
+    <t>CHI1159617-CHI7861458</t>
+  </si>
+  <si>
+    <t>SH9KL8368700</t>
+  </si>
+  <si>
+    <t>TCLU4623389</t>
+  </si>
+  <si>
+    <t>CHI1159620-CHI7861519</t>
+  </si>
+  <si>
+    <t>KKTU8253008</t>
+  </si>
+  <si>
+    <t>CHI1159954-CHI7863600</t>
+  </si>
+  <si>
+    <t>SH9EH1093300</t>
   </si>
 </sst>
 </file>
@@ -725,7 +1355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -828,58 +1458,58 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -888,52 +1518,52 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -942,16 +1572,16 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -960,16 +1590,16 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -978,16 +1608,16 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -996,16 +1626,16 @@
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -1014,16 +1644,16 @@
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1032,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1050,16 +1680,16 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1068,16 +1698,16 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1086,88 +1716,88 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1176,70 +1806,70 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1248,16 +1878,16 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1266,160 +1896,160 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E36"/>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E37"/>
       <c r="F37" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1428,16 +2058,16 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1446,34 +2076,34 @@
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1482,34 +2112,34 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>106</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1518,16 +2148,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1536,16 +2166,16 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1554,34 +2184,34 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -1590,16 +2220,16 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -1608,16 +2238,16 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>47</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -1626,16 +2256,16 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1644,16 +2274,16 @@
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -1662,16 +2292,16 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -1680,7 +2310,7 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
@@ -1689,7 +2319,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -1698,16 +2328,16 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -1716,16 +2346,16 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -1734,160 +2364,160 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D57" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D58" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>179</v>
+        <v>27</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D62" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -1896,16 +2526,16 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>191</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -1914,16 +2544,16 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -1932,16 +2562,16 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -1950,16 +2580,16 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -1968,106 +2598,106 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B74" t="s">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>113</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2076,16 +2706,16 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>216</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2094,16 +2724,16 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2112,11 +2742,1343 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>222</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>233</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>234</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>237</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>239</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" t="s">
+        <v>240</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>241</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>242</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>244</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>246</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" t="s">
+        <v>78</v>
+      </c>
+      <c r="C84" t="s">
+        <v>79</v>
+      </c>
+      <c r="D84" t="s">
+        <v>248</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>250</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>253</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>256</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" t="s">
+        <v>259</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>262</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" t="s">
+        <v>265</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" t="s">
+        <v>268</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>274</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>277</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D95" t="s">
+        <v>280</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>283</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>285</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>288</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" t="s">
+        <v>289</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>290</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>291</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>293</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" t="s">
+        <v>294</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>296</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>297</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>299</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>302</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>303</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>305</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" t="s">
+        <v>306</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>308</v>
+      </c>
+      <c r="B106" t="s">
+        <v>21</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106" t="s">
+        <v>309</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" t="s">
+        <v>312</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>315</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" t="s">
+        <v>318</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>320</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" t="s">
+        <v>321</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>323</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>324</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>327</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>329</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>330</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>333</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>334</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>335</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>338</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>340</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>341</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" t="s">
+        <v>344</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>345</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>346</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>348</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>349</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>351</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" t="s">
+        <v>352</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" t="s">
+        <v>355</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>358</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>359</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>362</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>363</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>365</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>366</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>367</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>368</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>369</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>370</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>372</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>373</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>376</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>377</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>378</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>379</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>380</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>382</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>383</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>384</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>385</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>387</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>388</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>389</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>390</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>392</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>393</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>395</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>396</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>398</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>399</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>400</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" t="s">
+        <v>22</v>
+      </c>
+      <c r="D140" t="s">
+        <v>401</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>403</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>404</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>405</v>
+      </c>
+      <c r="B142" t="s">
+        <v>406</v>
+      </c>
+      <c r="C142" t="s">
+        <v>407</v>
+      </c>
+      <c r="D142" t="s">
+        <v>408</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>410</v>
+      </c>
+      <c r="B143" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>411</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>413</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>414</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>416</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>417</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>418</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>419</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>420</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>421</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>423</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>424</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>425</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>426</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>428</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>429</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" t="s">
+        <v>406</v>
+      </c>
+      <c r="C151" t="s">
+        <v>407</v>
+      </c>
+      <c r="D151" t="s">
+        <v>431</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Blume-proj\PortTerminalScraping\TPLA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7260"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -1316,11 +1323,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1332,7 +1338,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1350,18 +1356,294 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G151"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G151"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1394,12 +1676,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1412,12 +1693,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1430,12 +1710,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1448,12 +1727,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1466,12 +1744,11 @@
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -1484,12 +1761,11 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1502,12 +1778,11 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1520,12 +1795,11 @@
       <c r="D9" t="s">
         <v>34</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -1538,12 +1812,11 @@
       <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1556,12 +1829,11 @@
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1574,12 +1846,11 @@
       <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="E12"/>
       <c r="F12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -1592,12 +1863,11 @@
       <c r="D13" t="s">
         <v>46</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -1610,12 +1880,11 @@
       <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="E14"/>
       <c r="F14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -1628,12 +1897,11 @@
       <c r="D15" t="s">
         <v>52</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1646,12 +1914,11 @@
       <c r="D16" t="s">
         <v>54</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -1664,12 +1931,11 @@
       <c r="D17" t="s">
         <v>57</v>
       </c>
-      <c r="E17"/>
       <c r="F17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1682,12 +1948,11 @@
       <c r="D18" t="s">
         <v>60</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1700,12 +1965,11 @@
       <c r="D19" t="s">
         <v>63</v>
       </c>
-      <c r="E19"/>
       <c r="F19" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1718,12 +1982,11 @@
       <c r="D20" t="s">
         <v>66</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -1736,12 +1999,11 @@
       <c r="D21" t="s">
         <v>69</v>
       </c>
-      <c r="E21"/>
       <c r="F21" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>71</v>
       </c>
@@ -1754,12 +2016,11 @@
       <c r="D22" t="s">
         <v>72</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>74</v>
       </c>
@@ -1772,12 +2033,11 @@
       <c r="D23" t="s">
         <v>75</v>
       </c>
-      <c r="E23"/>
       <c r="F23" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -1790,12 +2050,11 @@
       <c r="D24" t="s">
         <v>80</v>
       </c>
-      <c r="E24"/>
       <c r="F24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1808,12 +2067,11 @@
       <c r="D25" t="s">
         <v>83</v>
       </c>
-      <c r="E25"/>
       <c r="F25" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>84</v>
       </c>
@@ -1826,12 +2084,11 @@
       <c r="D26" t="s">
         <v>85</v>
       </c>
-      <c r="E26"/>
       <c r="F26" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -1844,12 +2101,11 @@
       <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="E27"/>
       <c r="F27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1862,12 +2118,11 @@
       <c r="D28" t="s">
         <v>90</v>
       </c>
-      <c r="E28"/>
       <c r="F28" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1880,12 +2135,11 @@
       <c r="D29" t="s">
         <v>93</v>
       </c>
-      <c r="E29"/>
       <c r="F29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -1898,12 +2152,11 @@
       <c r="D30" t="s">
         <v>96</v>
       </c>
-      <c r="E30"/>
       <c r="F30" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -1916,12 +2169,11 @@
       <c r="D31" t="s">
         <v>99</v>
       </c>
-      <c r="E31"/>
       <c r="F31" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>101</v>
       </c>
@@ -1934,12 +2186,11 @@
       <c r="D32" t="s">
         <v>102</v>
       </c>
-      <c r="E32"/>
       <c r="F32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1952,12 +2203,11 @@
       <c r="D33" t="s">
         <v>105</v>
       </c>
-      <c r="E33"/>
       <c r="F33" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>107</v>
       </c>
@@ -1970,12 +2220,11 @@
       <c r="D34" t="s">
         <v>108</v>
       </c>
-      <c r="E34"/>
       <c r="F34" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>110</v>
       </c>
@@ -1988,12 +2237,11 @@
       <c r="D35" t="s">
         <v>111</v>
       </c>
-      <c r="E35"/>
       <c r="F35" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -2006,12 +2254,11 @@
       <c r="D36" t="s">
         <v>114</v>
       </c>
-      <c r="E36"/>
       <c r="F36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>116</v>
       </c>
@@ -2024,12 +2271,11 @@
       <c r="D37" t="s">
         <v>117</v>
       </c>
-      <c r="E37"/>
       <c r="F37" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -2042,12 +2288,11 @@
       <c r="D38" t="s">
         <v>120</v>
       </c>
-      <c r="E38"/>
       <c r="F38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>122</v>
       </c>
@@ -2060,12 +2305,11 @@
       <c r="D39" t="s">
         <v>123</v>
       </c>
-      <c r="E39"/>
       <c r="F39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -2078,12 +2322,11 @@
       <c r="D40" t="s">
         <v>125</v>
       </c>
-      <c r="E40"/>
       <c r="F40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>127</v>
       </c>
@@ -2096,12 +2339,11 @@
       <c r="D41" t="s">
         <v>128</v>
       </c>
-      <c r="E41"/>
       <c r="F41" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -2114,12 +2356,11 @@
       <c r="D42" t="s">
         <v>131</v>
       </c>
-      <c r="E42"/>
       <c r="F42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>132</v>
       </c>
@@ -2132,12 +2373,11 @@
       <c r="D43" t="s">
         <v>133</v>
       </c>
-      <c r="E43"/>
       <c r="F43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>134</v>
       </c>
@@ -2150,12 +2390,11 @@
       <c r="D44" t="s">
         <v>135</v>
       </c>
-      <c r="E44"/>
       <c r="F44" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>137</v>
       </c>
@@ -2168,12 +2407,11 @@
       <c r="D45" t="s">
         <v>138</v>
       </c>
-      <c r="E45"/>
       <c r="F45" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -2186,12 +2424,11 @@
       <c r="D46" t="s">
         <v>141</v>
       </c>
-      <c r="E46"/>
       <c r="F46" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>143</v>
       </c>
@@ -2204,12 +2441,11 @@
       <c r="D47" t="s">
         <v>144</v>
       </c>
-      <c r="E47"/>
       <c r="F47" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -2222,12 +2458,11 @@
       <c r="D48" t="s">
         <v>147</v>
       </c>
-      <c r="E48"/>
       <c r="F48" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>149</v>
       </c>
@@ -2240,12 +2475,11 @@
       <c r="D49" t="s">
         <v>150</v>
       </c>
-      <c r="E49"/>
       <c r="F49" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>152</v>
       </c>
@@ -2258,12 +2492,11 @@
       <c r="D50" t="s">
         <v>153</v>
       </c>
-      <c r="E50"/>
       <c r="F50" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -2276,12 +2509,11 @@
       <c r="D51" t="s">
         <v>156</v>
       </c>
-      <c r="E51"/>
       <c r="F51" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>158</v>
       </c>
@@ -2294,12 +2526,11 @@
       <c r="D52" t="s">
         <v>159</v>
       </c>
-      <c r="E52"/>
       <c r="F52" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>161</v>
       </c>
@@ -2312,12 +2543,11 @@
       <c r="D53" t="s">
         <v>162</v>
       </c>
-      <c r="E53"/>
       <c r="F53" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>163</v>
       </c>
@@ -2330,12 +2560,11 @@
       <c r="D54" t="s">
         <v>164</v>
       </c>
-      <c r="E54"/>
       <c r="F54" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>166</v>
       </c>
@@ -2348,12 +2577,11 @@
       <c r="D55" t="s">
         <v>167</v>
       </c>
-      <c r="E55"/>
       <c r="F55" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>169</v>
       </c>
@@ -2366,12 +2594,11 @@
       <c r="D56" t="s">
         <v>170</v>
       </c>
-      <c r="E56"/>
       <c r="F56" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>172</v>
       </c>
@@ -2384,12 +2611,11 @@
       <c r="D57" t="s">
         <v>173</v>
       </c>
-      <c r="E57"/>
       <c r="F57" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>175</v>
       </c>
@@ -2402,12 +2628,11 @@
       <c r="D58" t="s">
         <v>176</v>
       </c>
-      <c r="E58"/>
       <c r="F58" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>178</v>
       </c>
@@ -2420,12 +2645,11 @@
       <c r="D59" t="s">
         <v>181</v>
       </c>
-      <c r="E59"/>
       <c r="F59" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>183</v>
       </c>
@@ -2438,12 +2662,11 @@
       <c r="D60" t="s">
         <v>184</v>
       </c>
-      <c r="E60"/>
       <c r="F60" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>186</v>
       </c>
@@ -2456,12 +2679,11 @@
       <c r="D61" t="s">
         <v>187</v>
       </c>
-      <c r="E61"/>
       <c r="F61" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>188</v>
       </c>
@@ -2474,12 +2696,11 @@
       <c r="D62" t="s">
         <v>189</v>
       </c>
-      <c r="E62"/>
       <c r="F62" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>191</v>
       </c>
@@ -2492,12 +2713,11 @@
       <c r="D63" t="s">
         <v>192</v>
       </c>
-      <c r="E63"/>
       <c r="F63" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>194</v>
       </c>
@@ -2510,12 +2730,11 @@
       <c r="D64" t="s">
         <v>195</v>
       </c>
-      <c r="E64"/>
       <c r="F64" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -2528,12 +2747,11 @@
       <c r="D65" t="s">
         <v>198</v>
       </c>
-      <c r="E65"/>
       <c r="F65" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>199</v>
       </c>
@@ -2546,12 +2764,11 @@
       <c r="D66" t="s">
         <v>200</v>
       </c>
-      <c r="E66"/>
       <c r="F66" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>202</v>
       </c>
@@ -2564,12 +2781,11 @@
       <c r="D67" t="s">
         <v>203</v>
       </c>
-      <c r="E67"/>
       <c r="F67" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>205</v>
       </c>
@@ -2582,12 +2798,11 @@
       <c r="D68" t="s">
         <v>206</v>
       </c>
-      <c r="E68"/>
       <c r="F68" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>208</v>
       </c>
@@ -2600,12 +2815,11 @@
       <c r="D69" t="s">
         <v>209</v>
       </c>
-      <c r="E69"/>
       <c r="F69" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -2618,12 +2832,11 @@
       <c r="D70" t="s">
         <v>212</v>
       </c>
-      <c r="E70"/>
       <c r="F70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>214</v>
       </c>
@@ -2636,12 +2849,11 @@
       <c r="D71" t="s">
         <v>215</v>
       </c>
-      <c r="E71"/>
       <c r="F71" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>217</v>
       </c>
@@ -2654,12 +2866,11 @@
       <c r="D72" t="s">
         <v>218</v>
       </c>
-      <c r="E72"/>
       <c r="F72" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>220</v>
       </c>
@@ -2672,12 +2883,11 @@
       <c r="D73" t="s">
         <v>221</v>
       </c>
-      <c r="E73"/>
       <c r="F73" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>223</v>
       </c>
@@ -2690,12 +2900,11 @@
       <c r="D74" t="s">
         <v>224</v>
       </c>
-      <c r="E74"/>
       <c r="F74" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>225</v>
       </c>
@@ -2708,12 +2917,11 @@
       <c r="D75" t="s">
         <v>226</v>
       </c>
-      <c r="E75"/>
       <c r="F75" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>227</v>
       </c>
@@ -2726,12 +2934,11 @@
       <c r="D76" t="s">
         <v>228</v>
       </c>
-      <c r="E76"/>
       <c r="F76" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>230</v>
       </c>
@@ -2744,12 +2951,11 @@
       <c r="D77" t="s">
         <v>231</v>
       </c>
-      <c r="E77"/>
       <c r="F77" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>233</v>
       </c>
@@ -2762,12 +2968,11 @@
       <c r="D78" t="s">
         <v>234</v>
       </c>
-      <c r="E78"/>
       <c r="F78" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>236</v>
       </c>
@@ -2780,12 +2985,11 @@
       <c r="D79" t="s">
         <v>237</v>
       </c>
-      <c r="E79"/>
       <c r="F79" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -2798,12 +3002,11 @@
       <c r="D80" t="s">
         <v>240</v>
       </c>
-      <c r="E80"/>
       <c r="F80" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>241</v>
       </c>
@@ -2816,12 +3019,11 @@
       <c r="D81" t="s">
         <v>242</v>
       </c>
-      <c r="E81"/>
       <c r="F81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>243</v>
       </c>
@@ -2834,12 +3036,11 @@
       <c r="D82" t="s">
         <v>244</v>
       </c>
-      <c r="E82"/>
       <c r="F82" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>245</v>
       </c>
@@ -2852,12 +3053,11 @@
       <c r="D83" t="s">
         <v>246</v>
       </c>
-      <c r="E83"/>
       <c r="F83" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>247</v>
       </c>
@@ -2870,12 +3070,11 @@
       <c r="D84" t="s">
         <v>248</v>
       </c>
-      <c r="E84"/>
       <c r="F84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -2888,12 +3087,11 @@
       <c r="D85" t="s">
         <v>250</v>
       </c>
-      <c r="E85"/>
       <c r="F85" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -2906,12 +3104,11 @@
       <c r="D86" t="s">
         <v>253</v>
       </c>
-      <c r="E86"/>
       <c r="F86" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -2924,12 +3121,11 @@
       <c r="D87" t="s">
         <v>256</v>
       </c>
-      <c r="E87"/>
       <c r="F87" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>258</v>
       </c>
@@ -2942,12 +3138,11 @@
       <c r="D88" t="s">
         <v>259</v>
       </c>
-      <c r="E88"/>
       <c r="F88" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -2960,12 +3155,11 @@
       <c r="D89" t="s">
         <v>262</v>
       </c>
-      <c r="E89"/>
       <c r="F89" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>264</v>
       </c>
@@ -2978,12 +3172,11 @@
       <c r="D90" t="s">
         <v>265</v>
       </c>
-      <c r="E90"/>
       <c r="F90" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -2996,12 +3189,11 @@
       <c r="D91" t="s">
         <v>268</v>
       </c>
-      <c r="E91"/>
       <c r="F91" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -3014,12 +3206,11 @@
       <c r="D92" t="s">
         <v>271</v>
       </c>
-      <c r="E92"/>
       <c r="F92" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -3032,12 +3223,11 @@
       <c r="D93" t="s">
         <v>274</v>
       </c>
-      <c r="E93"/>
       <c r="F93" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -3050,12 +3240,11 @@
       <c r="D94" t="s">
         <v>277</v>
       </c>
-      <c r="E94"/>
       <c r="F94" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>279</v>
       </c>
@@ -3068,12 +3257,11 @@
       <c r="D95" t="s">
         <v>280</v>
       </c>
-      <c r="E95"/>
       <c r="F95" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>282</v>
       </c>
@@ -3086,12 +3274,11 @@
       <c r="D96" t="s">
         <v>283</v>
       </c>
-      <c r="E96"/>
       <c r="F96" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>284</v>
       </c>
@@ -3104,12 +3291,11 @@
       <c r="D97" t="s">
         <v>285</v>
       </c>
-      <c r="E97"/>
       <c r="F97" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -3122,12 +3308,11 @@
       <c r="D98" t="s">
         <v>287</v>
       </c>
-      <c r="E98"/>
       <c r="F98" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>288</v>
       </c>
@@ -3140,12 +3325,11 @@
       <c r="D99" t="s">
         <v>289</v>
       </c>
-      <c r="E99"/>
       <c r="F99" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>290</v>
       </c>
@@ -3158,12 +3342,11 @@
       <c r="D100" t="s">
         <v>291</v>
       </c>
-      <c r="E100"/>
       <c r="F100" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>293</v>
       </c>
@@ -3176,12 +3359,11 @@
       <c r="D101" t="s">
         <v>294</v>
       </c>
-      <c r="E101"/>
       <c r="F101" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>296</v>
       </c>
@@ -3194,12 +3376,11 @@
       <c r="D102" t="s">
         <v>297</v>
       </c>
-      <c r="E102"/>
       <c r="F102" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>299</v>
       </c>
@@ -3212,12 +3393,11 @@
       <c r="D103" t="s">
         <v>300</v>
       </c>
-      <c r="E103"/>
       <c r="F103" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>302</v>
       </c>
@@ -3230,12 +3410,11 @@
       <c r="D104" t="s">
         <v>303</v>
       </c>
-      <c r="E104"/>
       <c r="F104" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>305</v>
       </c>
@@ -3248,12 +3427,11 @@
       <c r="D105" t="s">
         <v>306</v>
       </c>
-      <c r="E105"/>
       <c r="F105" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>308</v>
       </c>
@@ -3266,12 +3444,11 @@
       <c r="D106" t="s">
         <v>309</v>
       </c>
-      <c r="E106"/>
       <c r="F106" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>311</v>
       </c>
@@ -3284,12 +3461,11 @@
       <c r="D107" t="s">
         <v>312</v>
       </c>
-      <c r="E107"/>
       <c r="F107" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>314</v>
       </c>
@@ -3302,12 +3478,11 @@
       <c r="D108" t="s">
         <v>315</v>
       </c>
-      <c r="E108"/>
       <c r="F108" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>317</v>
       </c>
@@ -3320,12 +3495,11 @@
       <c r="D109" t="s">
         <v>318</v>
       </c>
-      <c r="E109"/>
       <c r="F109" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>320</v>
       </c>
@@ -3338,12 +3512,11 @@
       <c r="D110" t="s">
         <v>321</v>
       </c>
-      <c r="E110"/>
       <c r="F110" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>323</v>
       </c>
@@ -3356,12 +3529,11 @@
       <c r="D111" t="s">
         <v>324</v>
       </c>
-      <c r="E111"/>
       <c r="F111" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>326</v>
       </c>
@@ -3374,12 +3546,11 @@
       <c r="D112" t="s">
         <v>327</v>
       </c>
-      <c r="E112"/>
       <c r="F112" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>329</v>
       </c>
@@ -3392,12 +3563,11 @@
       <c r="D113" t="s">
         <v>330</v>
       </c>
-      <c r="E113"/>
       <c r="F113" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>332</v>
       </c>
@@ -3410,12 +3580,11 @@
       <c r="D114" t="s">
         <v>333</v>
       </c>
-      <c r="E114"/>
       <c r="F114" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>334</v>
       </c>
@@ -3428,12 +3597,11 @@
       <c r="D115" t="s">
         <v>335</v>
       </c>
-      <c r="E115"/>
       <c r="F115" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>337</v>
       </c>
@@ -3446,12 +3614,11 @@
       <c r="D116" t="s">
         <v>338</v>
       </c>
-      <c r="E116"/>
       <c r="F116" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>340</v>
       </c>
@@ -3464,12 +3631,11 @@
       <c r="D117" t="s">
         <v>341</v>
       </c>
-      <c r="E117"/>
       <c r="F117" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>343</v>
       </c>
@@ -3482,12 +3648,11 @@
       <c r="D118" t="s">
         <v>344</v>
       </c>
-      <c r="E118"/>
       <c r="F118" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>345</v>
       </c>
@@ -3500,12 +3665,11 @@
       <c r="D119" t="s">
         <v>346</v>
       </c>
-      <c r="E119"/>
       <c r="F119" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -3518,12 +3682,11 @@
       <c r="D120" t="s">
         <v>349</v>
       </c>
-      <c r="E120"/>
       <c r="F120" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>351</v>
       </c>
@@ -3536,12 +3699,11 @@
       <c r="D121" t="s">
         <v>352</v>
       </c>
-      <c r="E121"/>
       <c r="F121" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>354</v>
       </c>
@@ -3554,12 +3716,11 @@
       <c r="D122" t="s">
         <v>355</v>
       </c>
-      <c r="E122"/>
       <c r="F122" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>357</v>
       </c>
@@ -3572,12 +3733,11 @@
       <c r="D123" t="s">
         <v>358</v>
       </c>
-      <c r="E123"/>
       <c r="F123" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>359</v>
       </c>
@@ -3590,12 +3750,11 @@
       <c r="D124" t="s">
         <v>360</v>
       </c>
-      <c r="E124"/>
       <c r="F124" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>362</v>
       </c>
@@ -3608,12 +3767,11 @@
       <c r="D125" t="s">
         <v>363</v>
       </c>
-      <c r="E125"/>
       <c r="F125" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>365</v>
       </c>
@@ -3626,12 +3784,11 @@
       <c r="D126" t="s">
         <v>366</v>
       </c>
-      <c r="E126"/>
       <c r="F126" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>367</v>
       </c>
@@ -3644,12 +3801,11 @@
       <c r="D127" t="s">
         <v>368</v>
       </c>
-      <c r="E127"/>
       <c r="F127" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>369</v>
       </c>
@@ -3662,12 +3818,11 @@
       <c r="D128" t="s">
         <v>370</v>
       </c>
-      <c r="E128"/>
       <c r="F128" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>372</v>
       </c>
@@ -3680,12 +3835,11 @@
       <c r="D129" t="s">
         <v>373</v>
       </c>
-      <c r="E129"/>
       <c r="F129" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>375</v>
       </c>
@@ -3698,12 +3852,11 @@
       <c r="D130" t="s">
         <v>376</v>
       </c>
-      <c r="E130"/>
       <c r="F130" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>377</v>
       </c>
@@ -3716,12 +3869,11 @@
       <c r="D131" t="s">
         <v>378</v>
       </c>
-      <c r="E131"/>
       <c r="F131" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>379</v>
       </c>
@@ -3734,12 +3886,11 @@
       <c r="D132" t="s">
         <v>380</v>
       </c>
-      <c r="E132"/>
       <c r="F132" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>382</v>
       </c>
@@ -3752,12 +3903,11 @@
       <c r="D133" t="s">
         <v>383</v>
       </c>
-      <c r="E133"/>
       <c r="F133" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>384</v>
       </c>
@@ -3770,12 +3920,11 @@
       <c r="D134" t="s">
         <v>385</v>
       </c>
-      <c r="E134"/>
       <c r="F134" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>387</v>
       </c>
@@ -3788,12 +3937,11 @@
       <c r="D135" t="s">
         <v>388</v>
       </c>
-      <c r="E135"/>
       <c r="F135" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>389</v>
       </c>
@@ -3806,12 +3954,11 @@
       <c r="D136" t="s">
         <v>390</v>
       </c>
-      <c r="E136"/>
       <c r="F136" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>392</v>
       </c>
@@ -3824,12 +3971,11 @@
       <c r="D137" t="s">
         <v>393</v>
       </c>
-      <c r="E137"/>
       <c r="F137" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>395</v>
       </c>
@@ -3842,12 +3988,11 @@
       <c r="D138" t="s">
         <v>396</v>
       </c>
-      <c r="E138"/>
       <c r="F138" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>398</v>
       </c>
@@ -3860,12 +4005,11 @@
       <c r="D139" t="s">
         <v>399</v>
       </c>
-      <c r="E139"/>
       <c r="F139" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>400</v>
       </c>
@@ -3878,12 +4022,11 @@
       <c r="D140" t="s">
         <v>401</v>
       </c>
-      <c r="E140"/>
       <c r="F140" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>403</v>
       </c>
@@ -3896,12 +4039,11 @@
       <c r="D141" t="s">
         <v>404</v>
       </c>
-      <c r="E141"/>
       <c r="F141" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>405</v>
       </c>
@@ -3914,12 +4056,11 @@
       <c r="D142" t="s">
         <v>408</v>
       </c>
-      <c r="E142"/>
       <c r="F142" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>410</v>
       </c>
@@ -3932,12 +4073,11 @@
       <c r="D143" t="s">
         <v>411</v>
       </c>
-      <c r="E143"/>
       <c r="F143" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>413</v>
       </c>
@@ -3950,12 +4090,11 @@
       <c r="D144" t="s">
         <v>414</v>
       </c>
-      <c r="E144"/>
       <c r="F144" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>416</v>
       </c>
@@ -3968,12 +4107,11 @@
       <c r="D145" t="s">
         <v>417</v>
       </c>
-      <c r="E145"/>
       <c r="F145" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>418</v>
       </c>
@@ -3986,12 +4124,11 @@
       <c r="D146" t="s">
         <v>419</v>
       </c>
-      <c r="E146"/>
       <c r="F146" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>420</v>
       </c>
@@ -4004,12 +4141,11 @@
       <c r="D147" t="s">
         <v>421</v>
       </c>
-      <c r="E147"/>
       <c r="F147" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>423</v>
       </c>
@@ -4022,12 +4158,11 @@
       <c r="D148" t="s">
         <v>424</v>
       </c>
-      <c r="E148"/>
       <c r="F148" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>425</v>
       </c>
@@ -4040,12 +4175,11 @@
       <c r="D149" t="s">
         <v>426</v>
       </c>
-      <c r="E149"/>
       <c r="F149" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>428</v>
       </c>
@@ -4058,12 +4192,11 @@
       <c r="D150" t="s">
         <v>429</v>
       </c>
-      <c r="E150"/>
       <c r="F150" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>430</v>
       </c>
@@ -4076,12 +4209,11 @@
       <c r="D151" t="s">
         <v>431</v>
       </c>
-      <c r="E151"/>
       <c r="F151" t="s">
         <v>432</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvanausdeln\Dropbox (Blume Global)\Documents\UiPath\PortTerminalScraping\TPLA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="17730"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -140,11 +147,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -156,7 +162,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -174,18 +180,299 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -205,7 +492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -218,12 +505,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2"/>
       <c r="F2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -236,12 +522,11 @@
       <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E3"/>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -254,12 +539,11 @@
       <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="E4"/>
       <c r="F4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -272,12 +556,11 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5"/>
       <c r="F5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -290,12 +573,11 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -308,12 +590,11 @@
       <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="E7"/>
       <c r="F7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -326,12 +607,11 @@
       <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="E8"/>
       <c r="F8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -344,12 +624,11 @@
       <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E9"/>
       <c r="F9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -362,12 +641,11 @@
       <c r="D10" t="s">
         <v>34</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -380,12 +658,11 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="E11"/>
       <c r="F11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -398,12 +675,11 @@
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12"/>
       <c r="F12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,7 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>MOAU6739315</t>
+    <t>TEMU8003866</t>
   </si>
   <si>
     <t>YM UBERTY</t>
@@ -41,28 +41,124 @@
     <t>0070</t>
   </si>
   <si>
-    <t>CHI1203421-CHI8185342</t>
-  </si>
-  <si>
-    <t>SELV42668500</t>
-  </si>
-  <si>
-    <t>TRLU7597277</t>
-  </si>
-  <si>
-    <t>CHI1216210-CHI8286565</t>
-  </si>
-  <si>
-    <t>SH9FS6530700</t>
-  </si>
-  <si>
-    <t>TCNU7715228</t>
-  </si>
-  <si>
-    <t>CHI1216210-CHI8286566</t>
-  </si>
-  <si>
-    <t>NYKU5103361</t>
+    <t>CHI1223442-CHI8343405</t>
+  </si>
+  <si>
+    <t>SH9EU2908400</t>
+  </si>
+  <si>
+    <t>TCLU7965894</t>
+  </si>
+  <si>
+    <t>CHI1223647-CHI8345016</t>
+  </si>
+  <si>
+    <t>SELV42059600</t>
+  </si>
+  <si>
+    <t>MOTU0749420</t>
+  </si>
+  <si>
+    <t>CHI1223646-CHI8345017</t>
+  </si>
+  <si>
+    <t>PUSV03059900</t>
+  </si>
+  <si>
+    <t>TRLU7588110</t>
+  </si>
+  <si>
+    <t>CHI1223645-CHI8345015</t>
+  </si>
+  <si>
+    <t>SELV36080300</t>
+  </si>
+  <si>
+    <t>TCLU6667257</t>
+  </si>
+  <si>
+    <t>CHI1223645-CHI8345011</t>
+  </si>
+  <si>
+    <t>SELV39833500</t>
+  </si>
+  <si>
+    <t>TEMU9102626</t>
+  </si>
+  <si>
+    <t>CHI1223442-CHI8343409</t>
+  </si>
+  <si>
+    <t>SH9EU2909500</t>
+  </si>
+  <si>
+    <t>TCLU4615980</t>
+  </si>
+  <si>
+    <t>CHI1223645-CHI8345012</t>
+  </si>
+  <si>
+    <t>SELV39828900</t>
+  </si>
+  <si>
+    <t>FCIU2614590</t>
+  </si>
+  <si>
+    <t>CHI1224222-CHI8310879</t>
+  </si>
+  <si>
+    <t>DL9CA0531800</t>
+  </si>
+  <si>
+    <t>FCIU8871662</t>
+  </si>
+  <si>
+    <t>CHI1224222-CHI8310882</t>
+  </si>
+  <si>
+    <t>SH9FH7986700</t>
+  </si>
+  <si>
+    <t>TCNU4085737</t>
+  </si>
+  <si>
+    <t>CHI1224222-CHI8310880</t>
+  </si>
+  <si>
+    <t>KKFU8070698</t>
+  </si>
+  <si>
+    <t>CHI1231889-CHI8400282</t>
+  </si>
+  <si>
+    <t>SH9AQ3735400</t>
+  </si>
+  <si>
+    <t>TCLU8887076</t>
+  </si>
+  <si>
+    <t>CHI1224222-CHI8310881</t>
+  </si>
+  <si>
+    <t>CXDU2268462</t>
+  </si>
+  <si>
+    <t>CHI1223645-CHI8345014</t>
+  </si>
+  <si>
+    <t>SELV39827800</t>
+  </si>
+  <si>
+    <t>MOTU1419911</t>
+  </si>
+  <si>
+    <t>CHI1223645-CHI8345013</t>
+  </si>
+  <si>
+    <t>SELV39835700</t>
+  </si>
+  <si>
+    <t>TRLU9486478</t>
   </si>
   <si>
     <t>YM UPWARD</t>
@@ -71,85 +167,43 @@
     <t>0058</t>
   </si>
   <si>
-    <t>CHI1203146-CHI8183561</t>
-  </si>
-  <si>
-    <t>SH9AC6433400</t>
-  </si>
-  <si>
-    <t>TRLU9486478</t>
-  </si>
-  <si>
-    <t>CHI1215989-CHI8206384</t>
+    <t>CHI1232848-CHI8206384</t>
   </si>
   <si>
     <t>SZ8HK0115700</t>
   </si>
   <si>
-    <t>TCLU1544394</t>
-  </si>
-  <si>
-    <t>CHI1203156-CHI8183705</t>
-  </si>
-  <si>
-    <t>SH9FT8181300</t>
-  </si>
-  <si>
-    <t>TLLU2026037</t>
-  </si>
-  <si>
-    <t>CHI1202969-CHI8182782</t>
-  </si>
-  <si>
-    <t>TS9NU0660400</t>
-  </si>
-  <si>
-    <t>TEXU0024634</t>
-  </si>
-  <si>
-    <t>CHI1215451-CHI8281745</t>
-  </si>
-  <si>
-    <t>OS8NE8368500</t>
-  </si>
-  <si>
-    <t>TEMU8824347</t>
-  </si>
-  <si>
-    <t>CHI1203156-CHI8183706</t>
-  </si>
-  <si>
-    <t>SH9FT8182400</t>
-  </si>
-  <si>
-    <t>NYKU3335959</t>
-  </si>
-  <si>
-    <t>CHI1203146-CHI8183562</t>
-  </si>
-  <si>
-    <t>ONEU0311924</t>
-  </si>
-  <si>
-    <t>CHI1203156-CHI8183707</t>
-  </si>
-  <si>
-    <t>SH9FT8184600</t>
-  </si>
-  <si>
-    <t>NYKU4438674</t>
-  </si>
-  <si>
-    <t>CHI1203156-CHI8183704</t>
-  </si>
-  <si>
-    <t>SH9FT8183500</t>
-  </si>
-  <si>
-    <t>ONEU0149198</t>
-  </si>
-  <si>
-    <t>CHI1216210-CHI8286563</t>
+    <t>ONEU7015164</t>
+  </si>
+  <si>
+    <t>YM UTMOST</t>
+  </si>
+  <si>
+    <t>0080</t>
+  </si>
+  <si>
+    <t>CHI1232494-CHI8404821</t>
+  </si>
+  <si>
+    <t>DL9CA0676400</t>
+  </si>
+  <si>
+    <t>TCLU5138990</t>
+  </si>
+  <si>
+    <t>CHI1223628-CHI8343414</t>
+  </si>
+  <si>
+    <t>SH9FV6354500</t>
+  </si>
+  <si>
+    <t>LFIU2055811</t>
+  </si>
+  <si>
+    <t>CHI1236823-CHI8435932</t>
+  </si>
+  <si>
+    <t>SH9FS5260600</t>
   </si>
 </sst>
 </file>
@@ -194,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -271,174 +325,174 @@
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>34</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>41</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -447,11 +501,101 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,7 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TEMU8003866</t>
+    <t>KKFU8070698</t>
   </si>
   <si>
     <t>YM UBERTY</t>
@@ -41,123 +41,12 @@
     <t>0070</t>
   </si>
   <si>
-    <t>CHI1223442-CHI8343405</t>
-  </si>
-  <si>
-    <t>SH9EU2908400</t>
-  </si>
-  <si>
-    <t>TCLU7965894</t>
-  </si>
-  <si>
-    <t>CHI1223647-CHI8345016</t>
-  </si>
-  <si>
-    <t>SELV42059600</t>
-  </si>
-  <si>
-    <t>MOTU0749420</t>
-  </si>
-  <si>
-    <t>CHI1223646-CHI8345017</t>
-  </si>
-  <si>
-    <t>PUSV03059900</t>
-  </si>
-  <si>
-    <t>TRLU7588110</t>
-  </si>
-  <si>
-    <t>CHI1223645-CHI8345015</t>
-  </si>
-  <si>
-    <t>SELV36080300</t>
-  </si>
-  <si>
-    <t>TCLU6667257</t>
-  </si>
-  <si>
-    <t>CHI1223645-CHI8345011</t>
-  </si>
-  <si>
-    <t>SELV39833500</t>
-  </si>
-  <si>
-    <t>TEMU9102626</t>
-  </si>
-  <si>
-    <t>CHI1223442-CHI8343409</t>
-  </si>
-  <si>
-    <t>SH9EU2909500</t>
-  </si>
-  <si>
-    <t>TCLU4615980</t>
-  </si>
-  <si>
-    <t>CHI1223645-CHI8345012</t>
-  </si>
-  <si>
-    <t>SELV39828900</t>
-  </si>
-  <si>
-    <t>FCIU2614590</t>
-  </si>
-  <si>
-    <t>CHI1224222-CHI8310879</t>
-  </si>
-  <si>
-    <t>DL9CA0531800</t>
-  </si>
-  <si>
-    <t>FCIU8871662</t>
-  </si>
-  <si>
-    <t>CHI1224222-CHI8310882</t>
-  </si>
-  <si>
-    <t>SH9FH7986700</t>
-  </si>
-  <si>
-    <t>TCNU4085737</t>
-  </si>
-  <si>
-    <t>CHI1224222-CHI8310880</t>
-  </si>
-  <si>
-    <t>KKFU8070698</t>
-  </si>
-  <si>
     <t>CHI1231889-CHI8400282</t>
   </si>
   <si>
     <t>SH9AQ3735400</t>
   </si>
   <si>
-    <t>TCLU8887076</t>
-  </si>
-  <si>
-    <t>CHI1224222-CHI8310881</t>
-  </si>
-  <si>
-    <t>CXDU2268462</t>
-  </si>
-  <si>
-    <t>CHI1223645-CHI8345014</t>
-  </si>
-  <si>
-    <t>SELV39827800</t>
-  </si>
-  <si>
-    <t>MOTU1419911</t>
-  </si>
-  <si>
-    <t>CHI1223645-CHI8345013</t>
-  </si>
-  <si>
-    <t>SELV39835700</t>
-  </si>
-  <si>
     <t>TRLU9486478</t>
   </si>
   <si>
@@ -188,22 +77,175 @@
     <t>DL9CA0676400</t>
   </si>
   <si>
-    <t>TCLU5138990</t>
-  </si>
-  <si>
-    <t>CHI1223628-CHI8343414</t>
-  </si>
-  <si>
-    <t>SH9FV6354500</t>
-  </si>
-  <si>
-    <t>LFIU2055811</t>
-  </si>
-  <si>
-    <t>CHI1236823-CHI8435932</t>
-  </si>
-  <si>
-    <t>SH9FS5260600</t>
+    <t>HJMU1940105</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462546</t>
+  </si>
+  <si>
+    <t>SH9AS2720600</t>
+  </si>
+  <si>
+    <t>NYKU4411483</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462541</t>
+  </si>
+  <si>
+    <t>SH9AS2726500</t>
+  </si>
+  <si>
+    <t>TCNU4805056</t>
+  </si>
+  <si>
+    <t>CHI1240379-CHI8462547</t>
+  </si>
+  <si>
+    <t>SH9AS2715300</t>
+  </si>
+  <si>
+    <t>TCKU3185737</t>
+  </si>
+  <si>
+    <t>CHI1244017-CHI8492224</t>
+  </si>
+  <si>
+    <t>TS9ND1738500</t>
+  </si>
+  <si>
+    <t>TEMU8575218</t>
+  </si>
+  <si>
+    <t>CHI1240377-CHI8462553</t>
+  </si>
+  <si>
+    <t>SH9AS1654400</t>
+  </si>
+  <si>
+    <t>TCLU1659876</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462551</t>
+  </si>
+  <si>
+    <t>SH9AS2723900</t>
+  </si>
+  <si>
+    <t>NYKU4836699</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462542</t>
+  </si>
+  <si>
+    <t>SH9AS2722800</t>
+  </si>
+  <si>
+    <t>NYKU4819840</t>
+  </si>
+  <si>
+    <t>CHI1240377-CHI8462556</t>
+  </si>
+  <si>
+    <t>SH9AS1653300</t>
+  </si>
+  <si>
+    <t>TCLU6685712</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462550</t>
+  </si>
+  <si>
+    <t>SH9AS2721700</t>
+  </si>
+  <si>
+    <t>TCNU8689669</t>
+  </si>
+  <si>
+    <t>CHI1240379-CHI8462552</t>
+  </si>
+  <si>
+    <t>SH9AS2712700</t>
+  </si>
+  <si>
+    <t>CAIU9138604</t>
+  </si>
+  <si>
+    <t>CHI1240377-CHI8462555</t>
+  </si>
+  <si>
+    <t>SH9AS1652900</t>
+  </si>
+  <si>
+    <t>ONEU0295422</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462544</t>
+  </si>
+  <si>
+    <t>SH9AS2728700</t>
+  </si>
+  <si>
+    <t>TCLU9618600</t>
+  </si>
+  <si>
+    <t>CHI1240379-CHI8462543</t>
+  </si>
+  <si>
+    <t>SH9AS2719700</t>
+  </si>
+  <si>
+    <t>TCLU1587668</t>
+  </si>
+  <si>
+    <t>CHI1240379-CHI8462548</t>
+  </si>
+  <si>
+    <t>SH9AS2718600</t>
+  </si>
+  <si>
+    <t>TCNU6347899</t>
+  </si>
+  <si>
+    <t>CHI1243956-CHI8492214</t>
+  </si>
+  <si>
+    <t>SELV46853500</t>
+  </si>
+  <si>
+    <t>TCLU5624245</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462545</t>
+  </si>
+  <si>
+    <t>SH9AS2717500</t>
+  </si>
+  <si>
+    <t>TCNU9445055</t>
+  </si>
+  <si>
+    <t>CHI1240377-CHI8462554</t>
+  </si>
+  <si>
+    <t>SH9AS1655500</t>
+  </si>
+  <si>
+    <t>TCLU2543284</t>
+  </si>
+  <si>
+    <t>CHI1240378-CHI8462540</t>
+  </si>
+  <si>
+    <t>SH9AS2727600</t>
+  </si>
+  <si>
+    <t>CXDU1263492</t>
+  </si>
+  <si>
+    <t>CHI1240379-CHI8462549</t>
+  </si>
+  <si>
+    <t>SH9AS2714900</t>
   </si>
 </sst>
 </file>
@@ -248,7 +290,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -297,40 +339,40 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3"/>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -339,16 +381,16 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -357,16 +399,16 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -375,52 +417,52 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -429,16 +471,16 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -447,34 +489,34 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -483,16 +525,16 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -501,70 +543,70 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -573,29 +615,101 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21"/>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23"/>
+      <c r="F23" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="464">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -47,6 +47,15 @@
     <t>SH9ACH640600</t>
   </si>
   <si>
+    <t>DRYU6021370</t>
+  </si>
+  <si>
+    <t>CHI1257055-CHI8572771</t>
+  </si>
+  <si>
+    <t>SELV49703900</t>
+  </si>
+  <si>
     <t>TCNU5973856</t>
   </si>
   <si>
@@ -74,6 +83,33 @@
     <t>SH9FY8509507</t>
   </si>
   <si>
+    <t>FDCU0449753</t>
+  </si>
+  <si>
+    <t>CHI1260191-CHI8592716</t>
+  </si>
+  <si>
+    <t>SELV46461700</t>
+  </si>
+  <si>
+    <t>KKFU7954539</t>
+  </si>
+  <si>
+    <t>CHI1260191-CHI8592724</t>
+  </si>
+  <si>
+    <t>SELV45752900</t>
+  </si>
+  <si>
+    <t>NYKU3925831</t>
+  </si>
+  <si>
+    <t>CHI1260207-CHI8592726</t>
+  </si>
+  <si>
+    <t>TY8NK8829700</t>
+  </si>
+  <si>
     <t>NYKU4705805</t>
   </si>
   <si>
@@ -215,6 +251,24 @@
     <t>CHI1252065-CHI8543910</t>
   </si>
   <si>
+    <t>MOAU1436872</t>
+  </si>
+  <si>
+    <t>CHI1260114-CHI8592723</t>
+  </si>
+  <si>
+    <t>PUSV04184900</t>
+  </si>
+  <si>
+    <t>ONEU0164905</t>
+  </si>
+  <si>
+    <t>CHI1257039-CHI8572775</t>
+  </si>
+  <si>
+    <t>SELV44562700</t>
+  </si>
+  <si>
     <t>MOFU1400470</t>
   </si>
   <si>
@@ -290,6 +344,30 @@
     <t>SH9FY8509504</t>
   </si>
   <si>
+    <t>FDCU0521098</t>
+  </si>
+  <si>
+    <t>CHI1260191-CHI8592721</t>
+  </si>
+  <si>
+    <t>SELV45750700</t>
+  </si>
+  <si>
+    <t>TCLU9231009</t>
+  </si>
+  <si>
+    <t>COLOMBO EXPRESS</t>
+  </si>
+  <si>
+    <t>0087</t>
+  </si>
+  <si>
+    <t>CHI1257229-CHI8574130</t>
+  </si>
+  <si>
+    <t>SH9KJ1284900</t>
+  </si>
+  <si>
     <t>NYKU4743596</t>
   </si>
   <si>
@@ -299,13 +377,13 @@
     <t>WU8MI0288600</t>
   </si>
   <si>
-    <t>TCKU3185737</t>
-  </si>
-  <si>
-    <t>CHI1244017-CHI8492224</t>
-  </si>
-  <si>
-    <t>TS9ND1738500</t>
+    <t>UETU4163414</t>
+  </si>
+  <si>
+    <t>CHI1260352-CHI8594738</t>
+  </si>
+  <si>
+    <t>SELV44412800</t>
   </si>
   <si>
     <t>TCNU4860285</t>
@@ -359,6 +437,57 @@
     <t>WU8MI0287500</t>
   </si>
   <si>
+    <t>TCLU2993949</t>
+  </si>
+  <si>
+    <t>CHI1260352-CHI8594739</t>
+  </si>
+  <si>
+    <t>SELV41969800</t>
+  </si>
+  <si>
+    <t>NYKU5216244</t>
+  </si>
+  <si>
+    <t>CHI1260392-CHI8594914</t>
+  </si>
+  <si>
+    <t>SH9FT8334300</t>
+  </si>
+  <si>
+    <t>FCIU3500062</t>
+  </si>
+  <si>
+    <t>CHI1257230-CHI8574131</t>
+  </si>
+  <si>
+    <t>TA9PV0742600</t>
+  </si>
+  <si>
+    <t>KKFU1861043</t>
+  </si>
+  <si>
+    <t>CHI1260228-CHI8592717</t>
+  </si>
+  <si>
+    <t>TS9ND1806800</t>
+  </si>
+  <si>
+    <t>NYKU9900379</t>
+  </si>
+  <si>
+    <t>CHI1260234-CHI8592718</t>
+  </si>
+  <si>
+    <t>SELV48494800</t>
+  </si>
+  <si>
+    <t>CXDU1752765</t>
+  </si>
+  <si>
+    <t>CHI1260234-CHI8592719</t>
+  </si>
+  <si>
     <t>TCNU7896050</t>
   </si>
   <si>
@@ -485,6 +614,12 @@
     <t>CHI1251854-CHI8542932</t>
   </si>
   <si>
+    <t>SEGU5418707</t>
+  </si>
+  <si>
+    <t>CHI1257055-CHI8572769</t>
+  </si>
+  <si>
     <t>TRLU7568200</t>
   </si>
   <si>
@@ -509,6 +644,15 @@
     <t>CHI1252059-CHI8543964</t>
   </si>
   <si>
+    <t>NYKU9784432</t>
+  </si>
+  <si>
+    <t>CHI1260215-CHI8592720</t>
+  </si>
+  <si>
+    <t>SELV37079500</t>
+  </si>
+  <si>
     <t>TGBU5180195</t>
   </si>
   <si>
@@ -581,12 +725,63 @@
     <t>SH9KM6443700</t>
   </si>
   <si>
+    <t>KKFU7452274</t>
+  </si>
+  <si>
+    <t>CHI1259985-CHI8592204</t>
+  </si>
+  <si>
+    <t>LY8PM1649600</t>
+  </si>
+  <si>
+    <t>KKFU8018679</t>
+  </si>
+  <si>
+    <t>CHI1259985-CHI8592203</t>
+  </si>
+  <si>
+    <t>LY8PM1648500</t>
+  </si>
+  <si>
     <t>TCLU7644549</t>
   </si>
   <si>
     <t>CHI1252774-CHI8547177</t>
   </si>
   <si>
+    <t>TRLU9491242</t>
+  </si>
+  <si>
+    <t>CHI1257041-CHI8572780</t>
+  </si>
+  <si>
+    <t>SELV44505400</t>
+  </si>
+  <si>
+    <t>NYKU4252904</t>
+  </si>
+  <si>
+    <t>CHI1257055-CHI8572770</t>
+  </si>
+  <si>
+    <t>CAIU8674670</t>
+  </si>
+  <si>
+    <t>CHI1260191-CHI8592725</t>
+  </si>
+  <si>
+    <t>SELV46457500</t>
+  </si>
+  <si>
+    <t>TCKU2933372</t>
+  </si>
+  <si>
+    <t>CHI1260241-CHI8592727</t>
+  </si>
+  <si>
+    <t>SELV46259500</t>
+  </si>
+  <si>
     <t>TCLU1658360</t>
   </si>
   <si>
@@ -695,6 +890,12 @@
     <t>SH9KL8454300</t>
   </si>
   <si>
+    <t>TLLU6082682</t>
+  </si>
+  <si>
+    <t>CHI1257041-CHI8572779</t>
+  </si>
+  <si>
     <t>TRHU3906092</t>
   </si>
   <si>
@@ -806,6 +1007,12 @@
     <t>SH9KM6467600</t>
   </si>
   <si>
+    <t>TCNU9394596</t>
+  </si>
+  <si>
+    <t>CHI1257055-CHI8572772</t>
+  </si>
+  <si>
     <t>MOFU6737063</t>
   </si>
   <si>
@@ -833,6 +1040,21 @@
     <t>WU8MI0285300</t>
   </si>
   <si>
+    <t>FDCU0490340</t>
+  </si>
+  <si>
+    <t>CHI1259985-CHI8592205</t>
+  </si>
+  <si>
+    <t>KKFU7986691</t>
+  </si>
+  <si>
+    <t>CHI1259985-CHI8592202</t>
+  </si>
+  <si>
+    <t>LY8PM1647400</t>
+  </si>
+  <si>
     <t>ONEU0000476</t>
   </si>
   <si>
@@ -1131,15 +1353,6 @@
   </si>
   <si>
     <t>WU8MI0283800</t>
-  </si>
-  <si>
-    <t>TCNU6347899</t>
-  </si>
-  <si>
-    <t>CHI1243956-CHI8492214</t>
-  </si>
-  <si>
-    <t>SELV46853500</t>
   </si>
   <si>
     <t>TCNU7187603</t>
@@ -1235,7 +1448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1348,12 +1561,12 @@
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -1362,16 +1575,16 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1380,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8"/>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1398,16 +1611,16 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1416,16 +1629,16 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1434,16 +1647,16 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1452,16 +1665,16 @@
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
@@ -1470,16 +1683,16 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
         <v>7</v>
@@ -1488,11 +1701,11 @@
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15">
@@ -1546,12 +1759,12 @@
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -1560,16 +1773,16 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s">
         <v>7</v>
@@ -1578,16 +1791,16 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -1596,16 +1809,16 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>7</v>
@@ -1614,16 +1827,16 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
         <v>7</v>
@@ -1632,16 +1845,16 @@
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>7</v>
@@ -1650,16 +1863,16 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1668,16 +1881,16 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>7</v>
@@ -1686,16 +1899,16 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>7</v>
@@ -1704,16 +1917,16 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1722,11 +1935,11 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
@@ -1744,12 +1957,12 @@
       </c>
       <c r="E28"/>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
@@ -1758,16 +1971,16 @@
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
         <v>7</v>
@@ -1776,16 +1989,16 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1794,16 +2007,16 @@
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32" t="s">
         <v>7</v>
@@ -1812,16 +2025,16 @@
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
         <v>7</v>
@@ -1830,16 +2043,16 @@
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E33"/>
       <c r="F33" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
         <v>7</v>
@@ -1848,16 +2061,16 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E34"/>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
         <v>7</v>
@@ -1866,11 +2079,11 @@
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E35"/>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -1924,12 +2137,12 @@
       </c>
       <c r="E38"/>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" t="s">
         <v>7</v>
@@ -1938,34 +2151,34 @@
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E39"/>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E40"/>
       <c r="F40" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
         <v>7</v>
@@ -1974,16 +2187,16 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B42" t="s">
         <v>7</v>
@@ -1992,16 +2205,16 @@
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>7</v>
@@ -2010,16 +2223,16 @@
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E43"/>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -2028,16 +2241,16 @@
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E44"/>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -2046,16 +2259,16 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -2064,16 +2277,16 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -2082,16 +2295,16 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
         <v>7</v>
@@ -2100,16 +2313,16 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
         <v>7</v>
@@ -2118,16 +2331,16 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E49"/>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B50" t="s">
         <v>7</v>
@@ -2136,34 +2349,34 @@
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E50"/>
       <c r="F50" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E51"/>
       <c r="F51" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
@@ -2172,16 +2385,16 @@
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B53" t="s">
         <v>7</v>
@@ -2190,16 +2403,16 @@
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E53"/>
       <c r="F53" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B54" t="s">
         <v>7</v>
@@ -2208,16 +2421,16 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="E54"/>
       <c r="F54" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B55" t="s">
         <v>7</v>
@@ -2226,16 +2439,16 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E55"/>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B56" t="s">
         <v>7</v>
@@ -2244,16 +2457,16 @@
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E56"/>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B57" t="s">
         <v>7</v>
@@ -2262,16 +2475,16 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E57"/>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>7</v>
@@ -2280,16 +2493,16 @@
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="E58"/>
       <c r="F58" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
         <v>7</v>
@@ -2298,16 +2511,16 @@
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E59"/>
       <c r="F59" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B60" t="s">
         <v>7</v>
@@ -2316,16 +2529,16 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E60"/>
       <c r="F60" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
         <v>7</v>
@@ -2334,16 +2547,16 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E61"/>
       <c r="F61" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B62" t="s">
         <v>7</v>
@@ -2352,16 +2565,16 @@
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B63" t="s">
         <v>7</v>
@@ -2370,16 +2583,16 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
         <v>7</v>
@@ -2388,16 +2601,16 @@
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
         <v>7</v>
@@ -2406,16 +2619,16 @@
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E65"/>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>19</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
         <v>7</v>
@@ -2424,16 +2637,16 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="E66"/>
       <c r="F66" t="s">
-        <v>182</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B67" t="s">
         <v>7</v>
@@ -2442,16 +2655,16 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="E67"/>
       <c r="F67" t="s">
-        <v>185</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
@@ -2460,16 +2673,16 @@
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E68"/>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B69" t="s">
         <v>7</v>
@@ -2478,16 +2691,16 @@
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E69"/>
       <c r="F69" t="s">
-        <v>129</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B70" t="s">
         <v>7</v>
@@ -2496,16 +2709,16 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="E70"/>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B71" t="s">
         <v>7</v>
@@ -2514,16 +2727,16 @@
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="E71"/>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s">
         <v>7</v>
@@ -2532,16 +2745,16 @@
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E72"/>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s">
         <v>7</v>
@@ -2550,16 +2763,16 @@
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E73"/>
       <c r="F73" t="s">
-        <v>202</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B74" t="s">
         <v>7</v>
@@ -2568,16 +2781,16 @@
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E74"/>
       <c r="F74" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B75" t="s">
         <v>7</v>
@@ -2586,16 +2799,16 @@
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E75"/>
       <c r="F75" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B76" t="s">
         <v>7</v>
@@ -2604,16 +2817,16 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E76"/>
       <c r="F76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B77" t="s">
         <v>7</v>
@@ -2622,16 +2835,16 @@
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E77"/>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
         <v>7</v>
@@ -2640,16 +2853,16 @@
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E78"/>
       <c r="F78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B79" t="s">
         <v>7</v>
@@ -2658,16 +2871,16 @@
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B80" t="s">
         <v>7</v>
@@ -2676,16 +2889,16 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E80"/>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B81" t="s">
         <v>7</v>
@@ -2694,16 +2907,16 @@
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E81"/>
       <c r="F81" t="s">
-        <v>78</v>
+        <v>227</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
         <v>7</v>
@@ -2712,16 +2925,16 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="E82"/>
       <c r="F82" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -2730,16 +2943,16 @@
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="E83"/>
       <c r="F83" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -2748,52 +2961,52 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="E84"/>
       <c r="F84" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D85" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E85"/>
       <c r="F85" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D86" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E86"/>
       <c r="F86" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -2802,16 +3015,16 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E87"/>
       <c r="F87" t="s">
-        <v>55</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -2820,16 +3033,16 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E88"/>
       <c r="F88" t="s">
-        <v>19</v>
+        <v>247</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -2838,16 +3051,16 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E89"/>
       <c r="F89" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -2856,16 +3069,16 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E90"/>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>252</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -2874,16 +3087,16 @@
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="E91"/>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -2892,16 +3105,16 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="E92"/>
       <c r="F92" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -2910,16 +3123,16 @@
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E93"/>
       <c r="F93" t="s">
-        <v>19</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -2928,16 +3141,16 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E94"/>
       <c r="F94" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -2946,16 +3159,16 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E95"/>
       <c r="F95" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -2964,16 +3177,16 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E96"/>
       <c r="F96" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -2982,16 +3195,16 @@
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E97"/>
       <c r="F97" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -3000,16 +3213,16 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E98"/>
       <c r="F98" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -3018,16 +3231,16 @@
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E99"/>
       <c r="F99" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -3036,16 +3249,16 @@
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="E100"/>
       <c r="F100" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -3054,16 +3267,16 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="E101"/>
       <c r="F101" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -3072,16 +3285,16 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="E102"/>
       <c r="F102" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -3090,16 +3303,16 @@
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E103"/>
       <c r="F103" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -3108,16 +3321,16 @@
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E104"/>
       <c r="F104" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -3126,16 +3339,16 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="E105"/>
       <c r="F105" t="s">
-        <v>285</v>
+        <v>247</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -3144,16 +3357,16 @@
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E106"/>
       <c r="F106" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -3162,16 +3375,16 @@
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="E107"/>
       <c r="F107" t="s">
-        <v>117</v>
+        <v>299</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -3180,16 +3393,16 @@
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="E108"/>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -3198,16 +3411,16 @@
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="E109"/>
       <c r="F109" t="s">
-        <v>295</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -3216,16 +3429,16 @@
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="E110"/>
       <c r="F110" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -3234,16 +3447,16 @@
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="E111"/>
       <c r="F111" t="s">
-        <v>301</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B112" t="s">
         <v>7</v>
@@ -3252,16 +3465,16 @@
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="E112"/>
       <c r="F112" t="s">
-        <v>304</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B113" t="s">
         <v>7</v>
@@ -3270,16 +3483,16 @@
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="E113"/>
       <c r="F113" t="s">
-        <v>307</v>
+        <v>72</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
         <v>7</v>
@@ -3288,16 +3501,16 @@
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E114"/>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B115" t="s">
         <v>7</v>
@@ -3306,16 +3519,16 @@
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E115"/>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>22</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
@@ -3324,16 +3537,16 @@
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E116"/>
       <c r="F116" t="s">
-        <v>315</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B117" t="s">
         <v>7</v>
@@ -3342,16 +3555,16 @@
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E117"/>
       <c r="F117" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B118" t="s">
         <v>7</v>
@@ -3360,16 +3573,16 @@
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="E118"/>
       <c r="F118" t="s">
-        <v>24</v>
+        <v>324</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s">
         <v>7</v>
@@ -3378,16 +3591,16 @@
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E119"/>
       <c r="F119" t="s">
-        <v>24</v>
+        <v>327</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B120" t="s">
         <v>7</v>
@@ -3396,16 +3609,16 @@
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E120"/>
       <c r="F120" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -3414,16 +3627,16 @@
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E121"/>
       <c r="F121" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -3432,16 +3645,16 @@
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E122"/>
       <c r="F122" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -3450,16 +3663,16 @@
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E123"/>
       <c r="F123" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -3468,52 +3681,52 @@
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="E124"/>
       <c r="F124" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D125" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E125"/>
       <c r="F125" t="s">
-        <v>340</v>
+        <v>239</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
       <c r="D126" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E126"/>
       <c r="F126" t="s">
-        <v>140</v>
+        <v>346</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -3522,16 +3735,16 @@
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="E127"/>
       <c r="F127" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -3540,16 +3753,16 @@
         <v>8</v>
       </c>
       <c r="D128" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="E128"/>
       <c r="F128" t="s">
-        <v>78</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -3558,16 +3771,16 @@
         <v>8</v>
       </c>
       <c r="D129" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="E129"/>
       <c r="F129" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -3576,16 +3789,16 @@
         <v>8</v>
       </c>
       <c r="D130" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="E130"/>
       <c r="F130" t="s">
-        <v>19</v>
+        <v>356</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -3594,16 +3807,16 @@
         <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="E131"/>
       <c r="F131" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -3612,16 +3825,16 @@
         <v>8</v>
       </c>
       <c r="D132" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="E132"/>
       <c r="F132" t="s">
-        <v>282</v>
+        <v>359</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -3630,16 +3843,16 @@
         <v>8</v>
       </c>
       <c r="D133" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="E133"/>
       <c r="F133" t="s">
-        <v>19</v>
+        <v>160</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -3648,16 +3861,16 @@
         <v>8</v>
       </c>
       <c r="D134" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E134"/>
       <c r="F134" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -3666,16 +3879,16 @@
         <v>8</v>
       </c>
       <c r="D135" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="E135"/>
       <c r="F135" t="s">
-        <v>27</v>
+        <v>369</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -3684,16 +3897,16 @@
         <v>8</v>
       </c>
       <c r="D136" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="E136"/>
       <c r="F136" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -3702,16 +3915,16 @@
         <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="E137"/>
       <c r="F137" t="s">
-        <v>19</v>
+        <v>375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -3720,16 +3933,16 @@
         <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="E138"/>
       <c r="F138" t="s">
-        <v>60</v>
+        <v>378</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -3738,16 +3951,16 @@
         <v>8</v>
       </c>
       <c r="D139" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="E139"/>
       <c r="F139" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -3756,16 +3969,16 @@
         <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E140"/>
       <c r="F140" t="s">
-        <v>372</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B141" t="s">
         <v>7</v>
@@ -3774,16 +3987,16 @@
         <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="E141"/>
       <c r="F141" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B142" t="s">
         <v>7</v>
@@ -3792,16 +4005,16 @@
         <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="E142"/>
       <c r="F142" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B143" t="s">
         <v>7</v>
@@ -3810,16 +4023,16 @@
         <v>8</v>
       </c>
       <c r="D143" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="E143"/>
       <c r="F143" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B144" t="s">
         <v>7</v>
@@ -3828,16 +4041,16 @@
         <v>8</v>
       </c>
       <c r="D144" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E144"/>
       <c r="F144" t="s">
-        <v>285</v>
+        <v>36</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B145" t="s">
         <v>7</v>
@@ -3846,16 +4059,16 @@
         <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E145"/>
       <c r="F145" t="s">
-        <v>386</v>
+        <v>36</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B146" t="s">
         <v>7</v>
@@ -3864,16 +4077,16 @@
         <v>8</v>
       </c>
       <c r="D146" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="E146"/>
       <c r="F146" t="s">
-        <v>386</v>
+        <v>399</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B147" t="s">
         <v>7</v>
@@ -3882,16 +4095,16 @@
         <v>8</v>
       </c>
       <c r="D147" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="E147"/>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>402</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -3900,11 +4113,461 @@
         <v>8</v>
       </c>
       <c r="D148" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="E148"/>
       <c r="F148" t="s">
-        <v>30</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>406</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>407</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>409</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>412</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>413</v>
+      </c>
+      <c r="E151"/>
+      <c r="F151" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>415</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>416</v>
+      </c>
+      <c r="E152"/>
+      <c r="F152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>417</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>418</v>
+      </c>
+      <c r="E153"/>
+      <c r="F153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>419</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>420</v>
+      </c>
+      <c r="E154"/>
+      <c r="F154" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>421</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>422</v>
+      </c>
+      <c r="E155"/>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>423</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>424</v>
+      </c>
+      <c r="E156"/>
+      <c r="F156" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>425</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>426</v>
+      </c>
+      <c r="E157"/>
+      <c r="F157" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>427</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>428</v>
+      </c>
+      <c r="E158"/>
+      <c r="F158" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>429</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>430</v>
+      </c>
+      <c r="E159"/>
+      <c r="F159" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>431</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>432</v>
+      </c>
+      <c r="E160"/>
+      <c r="F160" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>433</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>434</v>
+      </c>
+      <c r="E161"/>
+      <c r="F161" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>435</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>436</v>
+      </c>
+      <c r="E162"/>
+      <c r="F162" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>437</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>438</v>
+      </c>
+      <c r="E163"/>
+      <c r="F163" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>439</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>440</v>
+      </c>
+      <c r="E164"/>
+      <c r="F164" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>441</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>442</v>
+      </c>
+      <c r="E165"/>
+      <c r="F165" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>444</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>445</v>
+      </c>
+      <c r="E166"/>
+      <c r="F166" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>447</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>448</v>
+      </c>
+      <c r="E167"/>
+      <c r="F167" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>450</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>451</v>
+      </c>
+      <c r="E168"/>
+      <c r="F168" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>453</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>454</v>
+      </c>
+      <c r="E169"/>
+      <c r="F169" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>455</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>456</v>
+      </c>
+      <c r="E170"/>
+      <c r="F170" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>458</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>459</v>
+      </c>
+      <c r="E171"/>
+      <c r="F171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>460</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>461</v>
+      </c>
+      <c r="E172"/>
+      <c r="F172" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>462</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>463</v>
+      </c>
+      <c r="E173"/>
+      <c r="F173" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/TPLA/Test.xlsx
+++ b/TPLA/Test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="411">
   <si>
     <t>Equipment Number</t>
   </si>
@@ -32,7 +32,31 @@
     <t>BOLNumber</t>
   </si>
   <si>
-    <t>TCNU5125069</t>
+    <t>ONEU0095825</t>
+  </si>
+  <si>
+    <t>YM UTMOST</t>
+  </si>
+  <si>
+    <t>0081</t>
+  </si>
+  <si>
+    <t>CHI1350779-CHI9261894</t>
+  </si>
+  <si>
+    <t>WU9MA1608300</t>
+  </si>
+  <si>
+    <t>TCNU6475267</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262686</t>
+  </si>
+  <si>
+    <t>DL9CA1157601</t>
+  </si>
+  <si>
+    <t>ONEU0162857</t>
   </si>
   <si>
     <t>YM UBERTY</t>
@@ -41,25 +65,64 @@
     <t>0071</t>
   </si>
   <si>
-    <t>CHI1330683-CHI9122526</t>
-  </si>
-  <si>
-    <t>DL9CA0921400</t>
-  </si>
-  <si>
-    <t>DRYU6066327</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122518</t>
-  </si>
-  <si>
-    <t>DL9CA0940501</t>
-  </si>
-  <si>
-    <t>TCNU7800459</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122530</t>
+    <t>CHI1352268-CHI9269840</t>
+  </si>
+  <si>
+    <t>SH9UW1271300</t>
+  </si>
+  <si>
+    <t>TEMU7428491</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269821</t>
+  </si>
+  <si>
+    <t>NYKU4218387</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269819</t>
+  </si>
+  <si>
+    <t>TGHU6501286</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269830</t>
+  </si>
+  <si>
+    <t>TCKU4808493</t>
+  </si>
+  <si>
+    <t>CHI1352108-CHI9268596</t>
+  </si>
+  <si>
+    <t>CK8LI0569900</t>
+  </si>
+  <si>
+    <t>MOFU5811588</t>
+  </si>
+  <si>
+    <t>CHI1350731-CHI9261617</t>
+  </si>
+  <si>
+    <t>DL9CA1166600</t>
+  </si>
+  <si>
+    <t>TCLU4872972</t>
+  </si>
+  <si>
+    <t>CHI1352400-CHI9269635</t>
+  </si>
+  <si>
+    <t>SH9EU6546600</t>
+  </si>
+  <si>
+    <t>MOAU7727366</t>
+  </si>
+  <si>
+    <t>CHI1352415-CHI9269628</t>
+  </si>
+  <si>
+    <t>SH9ABG086800</t>
   </si>
   <si>
     <t>ONEU0325234</t>
@@ -71,19 +134,139 @@
     <t>MNLV17257300</t>
   </si>
   <si>
+    <t>TCLU9526817</t>
+  </si>
+  <si>
+    <t>CHI1352411-CHI9269636</t>
+  </si>
+  <si>
+    <t>SH9FH6895500</t>
+  </si>
+  <si>
+    <t>TCNU6671803</t>
+  </si>
+  <si>
+    <t>CHI1352455-CHI9271984</t>
+  </si>
+  <si>
+    <t>SZ9HT0667600</t>
+  </si>
+  <si>
+    <t>TCLU9719360</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269674</t>
+  </si>
+  <si>
+    <t>SH9KM7909800</t>
+  </si>
+  <si>
+    <t>SEGU4459070</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269681</t>
+  </si>
+  <si>
+    <t>SH9KM7916600</t>
+  </si>
+  <si>
+    <t>NYKU4273635</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269691</t>
+  </si>
+  <si>
+    <t>SH9KM7926700</t>
+  </si>
+  <si>
+    <t>FSCU8655343</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269705</t>
+  </si>
+  <si>
+    <t>SH9KM7940300</t>
+  </si>
+  <si>
     <t>ONEU0187367</t>
   </si>
   <si>
     <t>CHI1343263-CHI9208328</t>
   </si>
   <si>
-    <t>TCNU4282459</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122525</t>
-  </si>
-  <si>
-    <t>TRLU6671560</t>
+    <t>TCNU7211696</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269682</t>
+  </si>
+  <si>
+    <t>SH9KM7917700</t>
+  </si>
+  <si>
+    <t>TCLU8477528</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269690</t>
+  </si>
+  <si>
+    <t>SH9KM7925600</t>
+  </si>
+  <si>
+    <t>TCLU6261550</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269684</t>
+  </si>
+  <si>
+    <t>SH9KM7919900</t>
+  </si>
+  <si>
+    <t>NYKU5815411</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269698</t>
+  </si>
+  <si>
+    <t>SH9KM7933500</t>
+  </si>
+  <si>
+    <t>NYKU5195537</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269703</t>
+  </si>
+  <si>
+    <t>SH9KM7938300</t>
+  </si>
+  <si>
+    <t>TLLU4213525</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269707</t>
+  </si>
+  <si>
+    <t>SH9KM7942500</t>
+  </si>
+  <si>
+    <t>DRYU9455997</t>
+  </si>
+  <si>
+    <t>CHI1352279-CHI9269638</t>
+  </si>
+  <si>
+    <t>SH9KL8489400</t>
+  </si>
+  <si>
+    <t>TCKU9397142</t>
+  </si>
+  <si>
+    <t>CHI1352281-CHI9269630</t>
+  </si>
+  <si>
+    <t>SH9EF9533800</t>
+  </si>
+  <si>
+    <t>TEMU9185343</t>
   </si>
   <si>
     <t>YM UPWARD</t>
@@ -92,55 +275,754 @@
     <t>0059</t>
   </si>
   <si>
-    <t>CHI1335698-CHI9154374</t>
-  </si>
-  <si>
-    <t>SH9UW1263400</t>
-  </si>
-  <si>
-    <t>DRYU9940950</t>
-  </si>
-  <si>
-    <t>CHI1335698-CHI9154375</t>
-  </si>
-  <si>
-    <t>TCNU2695073</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122523</t>
-  </si>
-  <si>
-    <t>DL9CA0940500</t>
-  </si>
-  <si>
-    <t>NYKU4439834</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122519</t>
-  </si>
-  <si>
-    <t>KKFU7822614</t>
-  </si>
-  <si>
-    <t>CHI1335698-CHI9154378</t>
-  </si>
-  <si>
-    <t>TCLU8437145</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122524</t>
-  </si>
-  <si>
-    <t>TCLU8848070</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122528</t>
-  </si>
-  <si>
-    <t>TEMU8924881</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122522</t>
+    <t>CHI1352348-CHI9271539</t>
+  </si>
+  <si>
+    <t>SH9KM1789800</t>
+  </si>
+  <si>
+    <t>TEMU9103880</t>
+  </si>
+  <si>
+    <t>CHI1352348-CHI9271538</t>
+  </si>
+  <si>
+    <t>TS9QG0706500</t>
+  </si>
+  <si>
+    <t>TCLU6266953</t>
+  </si>
+  <si>
+    <t>CHI1352400-CHI9269634</t>
+  </si>
+  <si>
+    <t>SH9EU6545500</t>
+  </si>
+  <si>
+    <t>TCNU4968773</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262685</t>
+  </si>
+  <si>
+    <t>SEGU5946155</t>
+  </si>
+  <si>
+    <t>CHI1352108-CHI9268597</t>
+  </si>
+  <si>
+    <t>TEMU6015831</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269832</t>
+  </si>
+  <si>
+    <t>TCNU8095559</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269828</t>
+  </si>
+  <si>
+    <t>BEAU4592820</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269622</t>
+  </si>
+  <si>
+    <t>NK8GL4369600</t>
+  </si>
+  <si>
+    <t>NYKU0862909</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269623</t>
+  </si>
+  <si>
+    <t>NK8GL4380600</t>
+  </si>
+  <si>
+    <t>NYKU4858110</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269654</t>
+  </si>
+  <si>
+    <t>SH9KM5861300</t>
+  </si>
+  <si>
+    <t>TCLU6689214</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269656</t>
+  </si>
+  <si>
+    <t>SH9KM5863500</t>
+  </si>
+  <si>
+    <t>GLDU7381424</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269661</t>
+  </si>
+  <si>
+    <t>SH9KM7897700</t>
+  </si>
+  <si>
+    <t>TCLU1602485</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269660</t>
+  </si>
+  <si>
+    <t>SH9KM5867900</t>
+  </si>
+  <si>
+    <t>TCLU7970020</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269667</t>
+  </si>
+  <si>
+    <t>SH9KM7902800</t>
+  </si>
+  <si>
+    <t>KKFU7540708</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269670</t>
+  </si>
+  <si>
+    <t>SH9KM7905400</t>
+  </si>
+  <si>
+    <t>TLLU5603390</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269673</t>
+  </si>
+  <si>
+    <t>SH9KM7908700</t>
+  </si>
+  <si>
+    <t>TCLU4873120</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269680</t>
+  </si>
+  <si>
+    <t>SH9KM7915500</t>
+  </si>
+  <si>
+    <t>TRLU6837305</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269838</t>
+  </si>
+  <si>
+    <t>TCLU6956270</t>
+  </si>
+  <si>
+    <t>CHI1352348-CHI9271542</t>
+  </si>
+  <si>
+    <t>TA9DE4186300</t>
+  </si>
+  <si>
+    <t>DRYU4047098</t>
+  </si>
+  <si>
+    <t>CHI1350731-CHI9261618</t>
+  </si>
+  <si>
+    <t>TLLU4219246</t>
+  </si>
+  <si>
+    <t>CHI1350779-CHI9261891</t>
+  </si>
+  <si>
+    <t>WU9MA1607900</t>
+  </si>
+  <si>
+    <t>MOTU1419932</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269833</t>
+  </si>
+  <si>
+    <t>NYKU5209230</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269823</t>
+  </si>
+  <si>
+    <t>DFSU6978892</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269826</t>
+  </si>
+  <si>
+    <t>NYKU4940321</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269820</t>
+  </si>
+  <si>
+    <t>TLLU4609326</t>
+  </si>
+  <si>
+    <t>CHI1352405-CHI9269633</t>
+  </si>
+  <si>
+    <t>SH9EL8589800</t>
+  </si>
+  <si>
+    <t>TLLU5727998</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269619</t>
+  </si>
+  <si>
+    <t>NK8GL4366300</t>
+  </si>
+  <si>
+    <t>MOTU0682841</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269620</t>
+  </si>
+  <si>
+    <t>NK8GL4367400</t>
+  </si>
+  <si>
+    <t>MOTU0799313</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269644</t>
+  </si>
+  <si>
+    <t>SH9KM5707900</t>
+  </si>
+  <si>
+    <t>TEMU8642949</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269645</t>
+  </si>
+  <si>
+    <t>SH9KM5708300</t>
+  </si>
+  <si>
+    <t>TLLU4022811</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269649</t>
+  </si>
+  <si>
+    <t>SH9KM5712500</t>
+  </si>
+  <si>
+    <t>TCNU5251160</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269653</t>
+  </si>
+  <si>
+    <t>SH9KM5860900</t>
+  </si>
+  <si>
+    <t>SEGU5098012</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269671</t>
+  </si>
+  <si>
+    <t>SH9KM7906500</t>
+  </si>
+  <si>
+    <t>GESU5823201</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269676</t>
+  </si>
+  <si>
+    <t>SH9KM7911800</t>
+  </si>
+  <si>
+    <t>TCLU4927191</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269672</t>
+  </si>
+  <si>
+    <t>SH9KM7907600</t>
+  </si>
+  <si>
+    <t>TGHU6576876</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269678</t>
+  </si>
+  <si>
+    <t>SH9KM7913300</t>
+  </si>
+  <si>
+    <t>TCLU6249093</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269679</t>
+  </si>
+  <si>
+    <t>SH9KM7914400</t>
+  </si>
+  <si>
+    <t>FDCU0621116</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269687</t>
+  </si>
+  <si>
+    <t>SH9KM7922300</t>
+  </si>
+  <si>
+    <t>TCNU4890612</t>
+  </si>
+  <si>
+    <t>CHI1352438-CHI9271979</t>
+  </si>
+  <si>
+    <t>SH9KN1786600</t>
+  </si>
+  <si>
+    <t>NYKU4347065</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269689</t>
+  </si>
+  <si>
+    <t>SH9KM7924500</t>
+  </si>
+  <si>
+    <t>KKFU7560617</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269695</t>
+  </si>
+  <si>
+    <t>SH9KM7930900</t>
+  </si>
+  <si>
+    <t>TCNU6435937</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269697</t>
+  </si>
+  <si>
+    <t>SH9KM7932400</t>
+  </si>
+  <si>
+    <t>TCLU5966253</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269696</t>
+  </si>
+  <si>
+    <t>SH9KM7931300</t>
+  </si>
+  <si>
+    <t>MOTU1401194</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269701</t>
+  </si>
+  <si>
+    <t>SH9KM7936800</t>
+  </si>
+  <si>
+    <t>MOTU0660708</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269700</t>
+  </si>
+  <si>
+    <t>SH9KM7935700</t>
+  </si>
+  <si>
+    <t>TCNU5790979</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269706</t>
+  </si>
+  <si>
+    <t>SH9KM7941400</t>
+  </si>
+  <si>
+    <t>TCLU9616079</t>
+  </si>
+  <si>
+    <t>CHI1352455-CHI9271983</t>
+  </si>
+  <si>
+    <t>BMOU5269294</t>
+  </si>
+  <si>
+    <t>CHI1352279-CHI9269637</t>
+  </si>
+  <si>
+    <t>SH9KL8488300</t>
+  </si>
+  <si>
+    <t>TCLU1657261</t>
+  </si>
+  <si>
+    <t>CHI1352279-CHI9269641</t>
+  </si>
+  <si>
+    <t>SH9KL8491400</t>
+  </si>
+  <si>
+    <t>NYKU4786601</t>
+  </si>
+  <si>
+    <t>CHI1352279-CHI9269640</t>
+  </si>
+  <si>
+    <t>SH9KL8490300</t>
+  </si>
+  <si>
+    <t>CXDU1848907</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262691</t>
+  </si>
+  <si>
+    <t>DL9CA1157600</t>
+  </si>
+  <si>
+    <t>TCLU9719523</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262688</t>
+  </si>
+  <si>
+    <t>TCNU4438177</t>
+  </si>
+  <si>
+    <t>CHI1352438-CHI9271978</t>
+  </si>
+  <si>
+    <t>TLLU5567863</t>
+  </si>
+  <si>
+    <t>CHI1352438-CHI9271977</t>
+  </si>
+  <si>
+    <t>NYKU4136118</t>
+  </si>
+  <si>
+    <t>CHI1352455-CHI9271981</t>
+  </si>
+  <si>
+    <t>TCLU1893858</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262690</t>
+  </si>
+  <si>
+    <t>TCLU6636410</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269824</t>
+  </si>
+  <si>
+    <t>TCLU1793118</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269834</t>
+  </si>
+  <si>
+    <t>TCLU5513283</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269825</t>
+  </si>
+  <si>
+    <t>BEAU4416499</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269831</t>
+  </si>
+  <si>
+    <t>KKFU7523660</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269642</t>
+  </si>
+  <si>
+    <t>SH9KM5705700</t>
+  </si>
+  <si>
+    <t>TCLU7901586</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269648</t>
+  </si>
+  <si>
+    <t>SH9KM5711400</t>
+  </si>
+  <si>
+    <t>MOTU1420548</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269651</t>
+  </si>
+  <si>
+    <t>SH9KM5714700</t>
+  </si>
+  <si>
+    <t>TCNU6651788</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269655</t>
+  </si>
+  <si>
+    <t>SH9KM5862400</t>
+  </si>
+  <si>
+    <t>TCLU8452704</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269657</t>
+  </si>
+  <si>
+    <t>SH9KM5864600</t>
+  </si>
+  <si>
+    <t>NYKU5233690</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269663</t>
+  </si>
+  <si>
+    <t>SH9KM7899900</t>
+  </si>
+  <si>
+    <t>TCLU9459703</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269668</t>
+  </si>
+  <si>
+    <t>SH9KM7903900</t>
+  </si>
+  <si>
+    <t>KKFU7699367</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269692</t>
+  </si>
+  <si>
+    <t>SH9KM7927800</t>
+  </si>
+  <si>
+    <t>TCLU8812061</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269694</t>
+  </si>
+  <si>
+    <t>SH9KM7929300</t>
+  </si>
+  <si>
+    <t>TCNU4680257</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269646</t>
+  </si>
+  <si>
+    <t>SH9KM5709400</t>
+  </si>
+  <si>
+    <t>SEGU4325512</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269652</t>
+  </si>
+  <si>
+    <t>SH9KM5859300</t>
+  </si>
+  <si>
+    <t>TLLU5704077</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269658</t>
+  </si>
+  <si>
+    <t>SH9KM5865700</t>
+  </si>
+  <si>
+    <t>TCNU5903890</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269669</t>
+  </si>
+  <si>
+    <t>SH9KM7904300</t>
+  </si>
+  <si>
+    <t>TEMU8903997</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269677</t>
+  </si>
+  <si>
+    <t>SH9KM7912900</t>
+  </si>
+  <si>
+    <t>KKFU9123792</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269666</t>
+  </si>
+  <si>
+    <t>SH9KM7901700</t>
+  </si>
+  <si>
+    <t>TCLU9661400</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269822</t>
+  </si>
+  <si>
+    <t>TCLU9571797</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269835</t>
+  </si>
+  <si>
+    <t>MOEU0701901</t>
+  </si>
+  <si>
+    <t>CHI1352281-CHI9269629</t>
+  </si>
+  <si>
+    <t>SH9EF3483600</t>
+  </si>
+  <si>
+    <t>TCKU1395591</t>
+  </si>
+  <si>
+    <t>CHI1352405-CHI9269631</t>
+  </si>
+  <si>
+    <t>SH9EL8586500</t>
+  </si>
+  <si>
+    <t>NYKU3570618</t>
+  </si>
+  <si>
+    <t>CHI1352405-CHI9269632</t>
+  </si>
+  <si>
+    <t>BMOU3074210</t>
+  </si>
+  <si>
+    <t>CHI1352415-CHI9269627</t>
+  </si>
+  <si>
+    <t>TCNU6892450</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269686</t>
+  </si>
+  <si>
+    <t>SH9KM7921900</t>
+  </si>
+  <si>
+    <t>TCLU6511726</t>
+  </si>
+  <si>
+    <t>CHI1352438-CHI9271980</t>
+  </si>
+  <si>
+    <t>KKFU9103116</t>
+  </si>
+  <si>
+    <t>CHI1352415-CHI9269626</t>
+  </si>
+  <si>
+    <t>SH9ABE459300</t>
+  </si>
+  <si>
+    <t>DRYU9966940</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262687</t>
+  </si>
+  <si>
+    <t>DRYU9468295</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262689</t>
+  </si>
+  <si>
+    <t>CAIU9177299</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262692</t>
+  </si>
+  <si>
+    <t>TLLU1629360</t>
+  </si>
+  <si>
+    <t>CHI1350731-CHI9261616</t>
+  </si>
+  <si>
+    <t>GESU5751945</t>
+  </si>
+  <si>
+    <t>CHI1350779-CHI9261893</t>
+  </si>
+  <si>
+    <t>WU8ML0367500</t>
+  </si>
+  <si>
+    <t>TCLU8009656</t>
+  </si>
+  <si>
+    <t>CHI1350779-CHI9261892</t>
+  </si>
+  <si>
+    <t>WU8ME0499600</t>
+  </si>
+  <si>
+    <t>ACCU2105153</t>
+  </si>
+  <si>
+    <t>CHI1352348-CHI9271541</t>
+  </si>
+  <si>
+    <t>TA9DV4553700</t>
+  </si>
+  <si>
+    <t>GLDU3194111</t>
+  </si>
+  <si>
+    <t>CHI1352348-CHI9271543</t>
+  </si>
+  <si>
+    <t>SH9FS9580800</t>
+  </si>
+  <si>
+    <t>ONEU0121400</t>
+  </si>
+  <si>
+    <t>CHI1352455-CHI9271985</t>
+  </si>
+  <si>
+    <t>TCNU9011470</t>
+  </si>
+  <si>
+    <t>CHI1352455-CHI9271982</t>
   </si>
   <si>
     <t>TLLU5506235</t>
@@ -149,22 +1031,127 @@
     <t>CHI1343263-CHI9208326</t>
   </si>
   <si>
-    <t>TCLU6242062</t>
-  </si>
-  <si>
-    <t>CHI1335698-CHI9154376</t>
-  </si>
-  <si>
-    <t>TCNU6707655</t>
-  </si>
-  <si>
-    <t>CHI1335698-CHI9154377</t>
-  </si>
-  <si>
-    <t>KKFU7777095</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122529</t>
+    <t>TGCU0217269</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269827</t>
+  </si>
+  <si>
+    <t>BSIU9663378</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269829</t>
+  </si>
+  <si>
+    <t>TCNU8246594</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269841</t>
+  </si>
+  <si>
+    <t>SEGU4351065</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269836</t>
+  </si>
+  <si>
+    <t>NYKU4862208</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269839</t>
+  </si>
+  <si>
+    <t>KKFU8153853</t>
+  </si>
+  <si>
+    <t>CHI1352268-CHI9269837</t>
+  </si>
+  <si>
+    <t>NYKU4887320</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269621</t>
+  </si>
+  <si>
+    <t>NK8GL4368500</t>
+  </si>
+  <si>
+    <t>TGHU9152779</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269643</t>
+  </si>
+  <si>
+    <t>SH9KM5706800</t>
+  </si>
+  <si>
+    <t>NYKU4161018</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269647</t>
+  </si>
+  <si>
+    <t>SH9KM5710300</t>
+  </si>
+  <si>
+    <t>ONEU0318180</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269650</t>
+  </si>
+  <si>
+    <t>SH9KM5713600</t>
+  </si>
+  <si>
+    <t>TCKU9579810</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269662</t>
+  </si>
+  <si>
+    <t>SH9KM7898800</t>
+  </si>
+  <si>
+    <t>KKFU7950209</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269683</t>
+  </si>
+  <si>
+    <t>SH9KM7918800</t>
+  </si>
+  <si>
+    <t>TEMU6998648</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269685</t>
+  </si>
+  <si>
+    <t>SH9KM7920800</t>
+  </si>
+  <si>
+    <t>KKFU7946997</t>
+  </si>
+  <si>
+    <t>CHI1352279-CHI9269639</t>
+  </si>
+  <si>
+    <t>NYKU9846600</t>
+  </si>
+  <si>
+    <t>CHI1350889-CHI9262455</t>
+  </si>
+  <si>
+    <t>DL9CA1167700</t>
+  </si>
+  <si>
+    <t>TCNU7483190</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269704</t>
+  </si>
+  <si>
+    <t>SH9KM7939400</t>
   </si>
   <si>
     <t>TLLU5502707</t>
@@ -179,34 +1166,85 @@
     <t>CHI1343263-CHI9208324</t>
   </si>
   <si>
-    <t>TCLU6515423</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122521</t>
-  </si>
-  <si>
-    <t>DRYU9946389</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122520</t>
-  </si>
-  <si>
-    <t>TCLU8141765</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122527</t>
-  </si>
-  <si>
-    <t>NYKU4404397</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122531</t>
-  </si>
-  <si>
-    <t>DFSU6870188</t>
-  </si>
-  <si>
-    <t>CHI1330683-CHI9122532</t>
+    <t>TCLU8420100</t>
+  </si>
+  <si>
+    <t>CHI1350619-CHI9261110</t>
+  </si>
+  <si>
+    <t>TEMU8903317</t>
+  </si>
+  <si>
+    <t>CHI1350931-CHI9262684</t>
+  </si>
+  <si>
+    <t>TCNU6348508</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269659</t>
+  </si>
+  <si>
+    <t>SH9KM5866800</t>
+  </si>
+  <si>
+    <t>CAIU8609931</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269665</t>
+  </si>
+  <si>
+    <t>SH9KM7900600</t>
+  </si>
+  <si>
+    <t>KKFU7879137</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269675</t>
+  </si>
+  <si>
+    <t>SH9KM7910700</t>
+  </si>
+  <si>
+    <t>FCIU9747893</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269688</t>
+  </si>
+  <si>
+    <t>SH9KM7923400</t>
+  </si>
+  <si>
+    <t>TEMU8899942</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269693</t>
+  </si>
+  <si>
+    <t>SH9KM7928900</t>
+  </si>
+  <si>
+    <t>NYKU0848623</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269699</t>
+  </si>
+  <si>
+    <t>SH9KM7934600</t>
+  </si>
+  <si>
+    <t>KKFU8126040</t>
+  </si>
+  <si>
+    <t>CHI1352272-CHI9269702</t>
+  </si>
+  <si>
+    <t>SH9KM7937900</t>
+  </si>
+  <si>
+    <t>ACCU2105132</t>
+  </si>
+  <si>
+    <t>CHI1352348-CHI9271540</t>
   </si>
 </sst>
 </file>
@@ -251,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -318,31 +1356,31 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4"/>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E5"/>
       <c r="F5" t="s">
@@ -351,16 +1389,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6"/>
       <c r="F6" t="s">
@@ -369,31 +1407,31 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7"/>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -408,323 +1446,2555 @@
         <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
         <v>29</v>
       </c>
       <c r="E9"/>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10"/>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11"/>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12"/>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13"/>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14"/>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E16"/>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E17"/>
       <c r="F17" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E18"/>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E19"/>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E20"/>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E21"/>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="E22"/>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E23"/>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E24"/>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="E25"/>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35"/>
+      <c r="F35" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36"/>
+      <c r="F36" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37"/>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s">
+        <v>113</v>
+      </c>
+      <c r="E38"/>
+      <c r="F38" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39"/>
+      <c r="F39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40"/>
+      <c r="F40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41"/>
+      <c r="F41" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42"/>
+      <c r="F42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43"/>
+      <c r="F43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44"/>
+      <c r="F44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45"/>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46"/>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47"/>
+      <c r="F47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="E49"/>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>147</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s">
+        <v>150</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53"/>
+      <c r="F53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55"/>
+      <c r="F55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56"/>
+      <c r="F56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>163</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>164</v>
+      </c>
+      <c r="E57"/>
+      <c r="F57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" t="s">
+        <v>167</v>
+      </c>
+      <c r="E58"/>
+      <c r="F58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E61"/>
+      <c r="F61" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" t="s">
+        <v>179</v>
+      </c>
+      <c r="E62"/>
+      <c r="F62" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" t="s">
+        <v>182</v>
+      </c>
+      <c r="E63"/>
+      <c r="F63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" t="s">
+        <v>185</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65"/>
+      <c r="F65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D67" t="s">
+        <v>194</v>
+      </c>
+      <c r="E67"/>
+      <c r="F67" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" t="s">
+        <v>197</v>
+      </c>
+      <c r="E68"/>
+      <c r="F68" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" t="s">
+        <v>200</v>
+      </c>
+      <c r="E69"/>
+      <c r="F69" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>202</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" t="s">
+        <v>206</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" t="s">
+        <v>209</v>
+      </c>
+      <c r="E72"/>
+      <c r="F72" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73"/>
+      <c r="F73" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>214</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74"/>
+      <c r="F74" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>217</v>
+      </c>
+      <c r="E75"/>
+      <c r="F75" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" t="s">
+        <v>15</v>
+      </c>
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76"/>
+      <c r="F76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77"/>
+      <c r="F77" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78"/>
+      <c r="F78" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" t="s">
+        <v>229</v>
+      </c>
+      <c r="E79"/>
+      <c r="F79" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>230</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" t="s">
+        <v>231</v>
+      </c>
+      <c r="E80"/>
+      <c r="F80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>232</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>233</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>235</v>
+      </c>
+      <c r="E82"/>
+      <c r="F82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>236</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>237</v>
+      </c>
+      <c r="E83"/>
+      <c r="F83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>238</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" t="s">
+        <v>239</v>
+      </c>
+      <c r="E84"/>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" t="s">
+        <v>241</v>
+      </c>
+      <c r="E85"/>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>242</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" t="s">
+        <v>243</v>
+      </c>
+      <c r="E86"/>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>244</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="s">
+        <v>245</v>
+      </c>
+      <c r="E87"/>
+      <c r="F87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88"/>
+      <c r="F88" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+      <c r="B89" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E89"/>
+      <c r="F89" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>252</v>
+      </c>
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>253</v>
+      </c>
+      <c r="E90"/>
+      <c r="F90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91"/>
+      <c r="F91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>258</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92"/>
+      <c r="F92" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>261</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" t="s">
+        <v>262</v>
+      </c>
+      <c r="E93"/>
+      <c r="F93" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>264</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" t="s">
+        <v>265</v>
+      </c>
+      <c r="E94"/>
+      <c r="F94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>267</v>
+      </c>
+      <c r="B95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" t="s">
+        <v>268</v>
+      </c>
+      <c r="E95"/>
+      <c r="F95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>270</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96"/>
+      <c r="F96" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>273</v>
+      </c>
+      <c r="B97" t="s">
+        <v>15</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" t="s">
+        <v>274</v>
+      </c>
+      <c r="E97"/>
+      <c r="F97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" t="s">
+        <v>15</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" t="s">
+        <v>277</v>
+      </c>
+      <c r="E98"/>
+      <c r="F98" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>279</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" t="s">
+        <v>280</v>
+      </c>
+      <c r="E99"/>
+      <c r="F99" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>282</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" t="s">
+        <v>283</v>
+      </c>
+      <c r="E100"/>
+      <c r="F100" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" t="s">
+        <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" t="s">
+        <v>286</v>
+      </c>
+      <c r="E101"/>
+      <c r="F101" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C102" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" t="s">
+        <v>289</v>
+      </c>
+      <c r="E102"/>
+      <c r="F102" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>291</v>
+      </c>
+      <c r="B103" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" t="s">
+        <v>292</v>
+      </c>
+      <c r="E103"/>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>293</v>
+      </c>
+      <c r="B104" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" t="s">
+        <v>294</v>
+      </c>
+      <c r="E104"/>
+      <c r="F104" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>295</v>
+      </c>
+      <c r="B105" t="s">
+        <v>15</v>
+      </c>
+      <c r="C105" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" t="s">
+        <v>296</v>
+      </c>
+      <c r="E105"/>
+      <c r="F105" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>298</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" t="s">
+        <v>16</v>
+      </c>
+      <c r="D106" t="s">
+        <v>299</v>
+      </c>
+      <c r="E106"/>
+      <c r="F106" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>301</v>
+      </c>
+      <c r="B107" t="s">
+        <v>15</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>302</v>
+      </c>
+      <c r="E107"/>
+      <c r="F107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>303</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>304</v>
+      </c>
+      <c r="E108"/>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>306</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>308</v>
+      </c>
+      <c r="B110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>309</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111" t="s">
+        <v>15</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>311</v>
+      </c>
+      <c r="E111"/>
+      <c r="F111" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112"/>
+      <c r="F112" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113"/>
+      <c r="F113" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>317</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>318</v>
+      </c>
+      <c r="E114"/>
+      <c r="F114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>319</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>320</v>
+      </c>
+      <c r="E115"/>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>321</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116"/>
+      <c r="F116" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>324</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117" t="s">
+        <v>325</v>
+      </c>
+      <c r="E117"/>
+      <c r="F117" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>327</v>
+      </c>
+      <c r="B118" t="s">
+        <v>85</v>
+      </c>
+      <c r="C118" t="s">
+        <v>86</v>
+      </c>
+      <c r="D118" t="s">
+        <v>328</v>
+      </c>
+      <c r="E118"/>
+      <c r="F118" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>330</v>
+      </c>
+      <c r="B119" t="s">
+        <v>85</v>
+      </c>
+      <c r="C119" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" t="s">
+        <v>331</v>
+      </c>
+      <c r="E119"/>
+      <c r="F119" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>333</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>334</v>
+      </c>
+      <c r="E120"/>
+      <c r="F120" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>335</v>
+      </c>
+      <c r="B121" t="s">
+        <v>15</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>336</v>
+      </c>
+      <c r="E121"/>
+      <c r="F121" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>337</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>338</v>
+      </c>
+      <c r="E122"/>
+      <c r="F122" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>339</v>
+      </c>
+      <c r="B123" t="s">
+        <v>15</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>340</v>
+      </c>
+      <c r="E123"/>
+      <c r="F123" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>341</v>
+      </c>
+      <c r="B124" t="s">
+        <v>15</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>342</v>
+      </c>
+      <c r="E124"/>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>343</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>344</v>
+      </c>
+      <c r="E125"/>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>345</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>346</v>
+      </c>
+      <c r="E126"/>
+      <c r="F126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>347</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>348</v>
+      </c>
+      <c r="E127"/>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>349</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>350</v>
+      </c>
+      <c r="E128"/>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>351</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>352</v>
+      </c>
+      <c r="E129"/>
+      <c r="F129" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>354</v>
+      </c>
+      <c r="B130" t="s">
+        <v>15</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>355</v>
+      </c>
+      <c r="E130"/>
+      <c r="F130" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>357</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>358</v>
+      </c>
+      <c r="E131"/>
+      <c r="F131" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>360</v>
+      </c>
+      <c r="B132" t="s">
+        <v>15</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>361</v>
+      </c>
+      <c r="E132"/>
+      <c r="F132" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>363</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>364</v>
+      </c>
+      <c r="E133"/>
+      <c r="F133" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>366</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>367</v>
+      </c>
+      <c r="E134"/>
+      <c r="F134" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>369</v>
+      </c>
+      <c r="B135" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>370</v>
+      </c>
+      <c r="E135"/>
+      <c r="F135" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>372</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>373</v>
+      </c>
+      <c r="E136"/>
+      <c r="F136" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>374</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>375</v>
+      </c>
+      <c r="E137"/>
+      <c r="F137" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>378</v>
+      </c>
+      <c r="E138"/>
+      <c r="F138" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>380</v>
+      </c>
+      <c r="B139" t="s">
+        <v>15</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139"/>
+      <c r="F139" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>382</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>383</v>
+      </c>
+      <c r="E140"/>
+      <c r="F140" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>384</v>
+      </c>
+      <c r="B141" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>385</v>
+      </c>
+      <c r="E141"/>
+      <c r="F141" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>386</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>387</v>
+      </c>
+      <c r="E142"/>
+      <c r="F142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>388</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>389</v>
+      </c>
+      <c r="E143"/>
+      <c r="F143" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>391</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>392</v>
+      </c>
+      <c r="E144"/>
+      <c r="F144" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>394</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>395</v>
+      </c>
+      <c r="E145"/>
+      <c r="F145" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>397</v>
+      </c>
+      <c r="B146" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>398</v>
+      </c>
+      <c r="E146"/>
+      <c r="F146" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>400</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>401</v>
+      </c>
+      <c r="E147"/>
+      <c r="F147" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>403</v>
+      </c>
+      <c r="B148" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>404</v>
+      </c>
+      <c r="E148"/>
+      <c r="F148" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>406</v>
+      </c>
+      <c r="B149" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>407</v>
+      </c>
+      <c r="E149"/>
+      <c r="F149" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>409</v>
+      </c>
+      <c r="B150" t="s">
+        <v>85</v>
+      </c>
+      <c r="C150" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" t="s">
+        <v>410</v>
+      </c>
+      <c r="E150"/>
+      <c r="F150" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>
